--- a/PL/PL.xlsx
+++ b/PL/PL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/534a1defcf7f9d1a/Company Models CloudSave/PL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="968" documentId="8_{DD1FE8FB-81A2-451C-9233-98A045FFB118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F13B205A-12ED-43A6-A546-B1FA6DF9C58B}"/>
+  <xr:revisionPtr revIDLastSave="977" documentId="8_{DD1FE8FB-81A2-451C-9233-98A045FFB118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60DDCF89-2AC5-4C76-B02D-C20F3FCA2FFC}"/>
   <bookViews>
-    <workbookView xWindow="39970" yWindow="3050" windowWidth="26720" windowHeight="17120" activeTab="2" xr2:uid="{F70D17C0-3989-48E5-BF07-6389F34DDC43}"/>
+    <workbookView minimized="1" xWindow="9060" yWindow="2740" windowWidth="26720" windowHeight="17120" activeTab="2" xr2:uid="{F70D17C0-3989-48E5-BF07-6389F34DDC43}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -818,8 +818,8 @@
     <v>6.27</v>
     <v>2.46</v>
     <v>1.496</v>
-    <v>-0.03</v>
-    <v>-1.1672999999999999E-2</v>
+    <v>0.05</v>
+    <v>1.9762999999999999E-2</v>
     <v>USD</v>
     <v>Planet Labs PBC is a provider of global, daily satellite imagery and geospatial solutions. The Company designs, builds, and operates the earth observation fleet of imaging satellites, capturing, and compiling data. Its satellite data and analytics reveal actionable insights regarding a large array of important phenomena, such as deforestation, agriculture, climate change, biodiversity, and supply chains worldwide. Its daily stream of proprietary data and machine learning analytics, delivered over its cloud-native platform, helps companies, governments, and civil society use satellite imagery to discover insights as change happens. It serves approximately 880 customers across large commercial and government verticals, including agriculture, mapping, forestry, finance, and insurance, as well as federal, state, and local government bodies. It also owns Sentinel Hub, an advanced API-driven, cloud streaming platform that allows customers to access multi-source earth observation (EO) data.</v>
     <v>930</v>
@@ -827,23 +827,23 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>645 Harrison Street, Floor 4, SAN FRANCISCO, CA, 94107 US</v>
-    <v>2.57</v>
+    <v>2.61</v>
     <v>Aerospace &amp; Defense</v>
     <v>Stock</v>
-    <v>45202.653726897654</v>
+    <v>45203.755070207815</v>
     <v>0</v>
-    <v>2.5249999999999999</v>
-    <v>725575892</v>
+    <v>2.5</v>
+    <v>737002284</v>
     <v>PLANET LABS PBC</v>
     <v>PLANET LABS PBC</v>
-    <v>2.5649999999999999</v>
-    <v>2.57</v>
     <v>2.54</v>
+    <v>2.5299999999999998</v>
+    <v>2.58</v>
     <v>285659800</v>
     <v>PL</v>
     <v>PLANET LABS PBC (XNYS:PL)</v>
-    <v>305469</v>
-    <v>1799582</v>
+    <v>636320</v>
+    <v>1790837</v>
     <v>2020</v>
   </rv>
   <rv s="2">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="B2" s="2" cm="1">
         <f t="array" ref="B2">_FV(A1,"Price")</f>
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="B4" s="2">
         <f>B2*B3</f>
-        <v>725.57589200000007</v>
+        <v>737.00228400000003</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -1619,10 +1619,10 @@
   <dimension ref="B1:AH120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="H134" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="H17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="R92" sqref="R92"/>
+      <selection pane="bottomRight" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/PL/PL.xlsx
+++ b/PL/PL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/534a1defcf7f9d1a/Company Models CloudSave/PL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1433" documentId="8_{DD1FE8FB-81A2-451C-9233-98A045FFB118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CB27A3D-3263-47CF-B944-0573564F00AB}"/>
+  <xr:revisionPtr revIDLastSave="1443" documentId="8_{DD1FE8FB-81A2-451C-9233-98A045FFB118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6B29C0B-2361-46E6-87D2-1B92B7B0FF65}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21600" activeTab="3" xr2:uid="{F70D17C0-3989-48E5-BF07-6389F34DDC43}"/>
+    <workbookView xWindow="5560" yWindow="3580" windowWidth="28800" windowHeight="15460" activeTab="3" xr2:uid="{F70D17C0-3989-48E5-BF07-6389F34DDC43}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -829,7 +829,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -853,11 +853,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1003,6 +999,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
 <rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <global>
@@ -1125,9 +1125,11 @@
     <v>4</v>
     <v>5</v>
     <v>1.99</v>
-    <v>1.494</v>
-    <v>0.105</v>
-    <v>4.7510999999999998E-2</v>
+    <v>1.486</v>
+    <v>-0.01</v>
+    <v>-1.1758999999999999E-2</v>
+    <v>-4.6080000000000001E-3</v>
+    <v>-2.5399999999999999E-2</v>
     <v>USD</v>
     <v>Planet Labs PBC is a provider of global, daily satellite imagery and geospatial solutions. The Company designs, builds, and operates the earth observation fleet of imaging satellites, capturing, and compiling data. Its satellite data and analytics reveal actionable insights regarding a large array of important phenomena, such as deforestation, agriculture, climate change, biodiversity, and supply chains worldwide. Its daily stream of proprietary data and machine learning analytics, delivered over its cloud-native platform, helps companies, governments, and civil society use satellite imagery to discover insights as change happens. It serves approximately 880 customers across large commercial and government verticals, including agriculture, mapping, forestry, finance, and insurance, as well as federal, state, and local government bodies. It also owns Sentinel Hub, an advanced API-driven, cloud streaming platform that allows customers to access multi-source earth observation (EO) data.</v>
     <v>930</v>
@@ -1135,23 +1137,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>645 Harrison Street, Floor 4, SAN FRANCISCO, CA, 94107 US</v>
-    <v>2.3250000000000002</v>
+    <v>2.19</v>
     <v>Aerospace &amp; Defense</v>
     <v>Stock</v>
-    <v>45331.994280705469</v>
+    <v>45365.958333356248</v>
     <v>0</v>
-    <v>2.2000000000000002</v>
-    <v>667292200</v>
+    <v>2.13</v>
+    <v>621271944</v>
     <v>PLANET LABS PBC</v>
     <v>PLANET LABS PBC</v>
-    <v>2.23</v>
-    <v>2.21</v>
-    <v>2.3149999999999999</v>
+    <v>2.19</v>
+    <v>2.17</v>
+    <v>2.16</v>
+    <v>2.1345999999999998</v>
     <v>287625900</v>
     <v>PL</v>
     <v>PLANET LABS PBC (XNYS:PL)</v>
-    <v>1126300</v>
-    <v>1186310</v>
+    <v>1123529</v>
+    <v>1011461</v>
     <v>2020</v>
   </rv>
   <rv s="2">
@@ -1182,7 +1185,9 @@
     <k n="52 week low"/>
     <k n="Beta"/>
     <k n="Change"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1202,6 +1207,7 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1218,7 +1224,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="41">
+    <a count="44">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1229,13 +1235,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1299,13 +1308,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1349,6 +1364,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -1356,6 +1374,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -1418,9 +1439,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1458,7 +1479,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1564,7 +1585,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1706,7 +1727,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1733,7 +1754,7 @@
       </c>
       <c r="B2" s="2" cm="1">
         <f t="array" ref="B2">_FV(A1,"Price")</f>
-        <v>2.3149999999999999</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1754,7 +1775,7 @@
       </c>
       <c r="B4" s="2">
         <f>B2*B3</f>
-        <v>665.85395849999998</v>
+        <v>621.27194400000008</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -2043,10 +2064,10 @@
   <dimension ref="A1:AQ132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="J23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="O93" sqref="O93"/>
+      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2231,7 +2252,7 @@
       <c r="Q13" s="7">
         <v>27191</v>
       </c>
-      <c r="R13" s="21">
+      <c r="R13" s="7">
         <f>AK13-Q13-P13-O13</f>
         <v>26101</v>
       </c>
@@ -2270,7 +2291,7 @@
       <c r="Q14" s="7">
         <v>0</v>
       </c>
-      <c r="R14" s="21">
+      <c r="R14" s="7">
         <f>AK14-Q14-P14-O14</f>
         <v>12952</v>
       </c>
@@ -2309,7 +2330,7 @@
       <c r="Q15" s="8">
         <v>22513</v>
       </c>
-      <c r="R15" s="22">
+      <c r="R15" s="8">
         <f>AK15-Q15-P15-O15</f>
         <v>13922</v>
       </c>
@@ -2545,7 +2566,7 @@
       <c r="Q23" s="8">
         <v>24728</v>
       </c>
-      <c r="R23" s="21">
+      <c r="R23" s="7">
         <f>AK23-Q23-P23-O23</f>
         <v>23915</v>
       </c>
@@ -2835,7 +2856,7 @@
       <c r="Q27" s="7">
         <v>27598</v>
       </c>
-      <c r="R27" s="21">
+      <c r="R27" s="7">
         <f>AK27-Q27-P27-O27</f>
         <v>31831</v>
       </c>
@@ -2874,7 +2895,7 @@
       <c r="Q28" s="7">
         <v>19383</v>
       </c>
-      <c r="R28" s="21">
+      <c r="R28" s="7">
         <f>AK28-Q28-P28-O28</f>
         <v>20299</v>
       </c>
@@ -2913,7 +2934,7 @@
       <c r="Q29" s="8">
         <v>20627</v>
       </c>
-      <c r="R29" s="21">
+      <c r="R29" s="7">
         <f>AK29-Q29-P29-O29</f>
         <v>19619</v>
       </c>
@@ -3348,7 +3369,7 @@
       <c r="Q34" s="7">
         <v>0</v>
       </c>
-      <c r="R34" s="21">
+      <c r="R34" s="7">
         <f>AK34-Q34-P34-O34</f>
         <v>0</v>
       </c>
@@ -3387,7 +3408,7 @@
       <c r="Q35" s="7">
         <v>2853</v>
       </c>
-      <c r="R35" s="21">
+      <c r="R35" s="7">
         <f>AK35-Q35-P35-O35</f>
         <v>3396</v>
       </c>
@@ -3426,7 +3447,7 @@
       <c r="Q36" s="7">
         <v>0</v>
       </c>
-      <c r="R36" s="21">
+      <c r="R36" s="7">
         <f>AK36-Q36-P36-O36</f>
         <v>0</v>
       </c>
@@ -3465,7 +3486,7 @@
       <c r="Q37" s="7">
         <v>-19</v>
       </c>
-      <c r="R37" s="21">
+      <c r="R37" s="7">
         <f>AK37-Q37-P37-O37</f>
         <v>1185</v>
       </c>
@@ -3504,7 +3525,7 @@
       <c r="Q38" s="8">
         <v>1</v>
       </c>
-      <c r="R38" s="21">
+      <c r="R38" s="7">
         <f>AK38-Q38-P38-O38</f>
         <v>207</v>
       </c>
@@ -3680,143 +3701,143 @@
         <v>99</v>
       </c>
       <c r="E40" s="7">
-        <f>E31+E39</f>
+        <f t="shared" ref="E40:T40" si="37">E31+E39</f>
         <v>0</v>
       </c>
       <c r="F40" s="7">
-        <f>F31+F39</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="G40" s="7">
-        <f>G31+G39</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="H40" s="7">
-        <f>H31+H39</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="I40" s="7">
-        <f>I31+I39</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J40" s="7">
-        <f>J31+J39</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K40" s="7">
-        <f>K31+K39</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="L40" s="7">
-        <f>L31+L39</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="M40" s="7">
-        <f>M31+M39</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N40" s="7">
-        <f>N31+N39</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="O40" s="7">
-        <f>O31+O39</f>
+        <f t="shared" si="37"/>
         <v>-44046</v>
       </c>
       <c r="P40" s="7">
-        <f>P31+P39</f>
+        <f t="shared" si="37"/>
         <v>-39375</v>
       </c>
       <c r="Q40" s="7">
-        <f>Q31+Q39</f>
+        <f t="shared" si="37"/>
         <v>-39797</v>
       </c>
       <c r="R40" s="7">
-        <f>R31+R39</f>
+        <f t="shared" si="37"/>
         <v>-37901</v>
       </c>
       <c r="S40" s="7">
-        <f>S31+S39</f>
+        <f t="shared" si="37"/>
         <v>-34137</v>
       </c>
       <c r="T40" s="7">
-        <f>T31+T39</f>
+        <f t="shared" si="37"/>
         <v>-37393</v>
       </c>
       <c r="U40" s="7">
-        <f t="shared" ref="U40:AB40" si="37">U31+U39</f>
+        <f t="shared" ref="U40:AB40" si="38">U31+U39</f>
         <v>-37649</v>
       </c>
       <c r="V40" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W40" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="X40" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="Y40" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="Z40" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AA40" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AB40" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AG40" s="7">
-        <f>AG31+AG39</f>
+        <f t="shared" ref="AG40:AQ40" si="39">AG31+AG39</f>
         <v>0</v>
       </c>
       <c r="AH40" s="7">
-        <f>AH31+AH39</f>
+        <f t="shared" si="39"/>
         <v>-123584</v>
       </c>
       <c r="AI40" s="7">
-        <f>AI31+AI39</f>
+        <f t="shared" si="39"/>
         <v>-126030</v>
       </c>
       <c r="AJ40" s="7">
-        <f>AJ31+AJ39</f>
+        <f t="shared" si="39"/>
         <v>-135014</v>
       </c>
       <c r="AK40" s="7">
-        <f>AK31+AK39</f>
+        <f t="shared" si="39"/>
         <v>-161119</v>
       </c>
       <c r="AL40" s="7">
-        <f>AL31+AL39</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AM40" s="7">
-        <f>AM31+AM39</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AN40" s="7">
-        <f>AN31+AN39</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AO40" s="7">
-        <f>AO31+AO39</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AP40" s="7">
-        <f>AP31+AP39</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AQ40" s="7">
-        <f>AQ31+AQ39</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
@@ -3833,7 +3854,7 @@
       <c r="Q41" s="8">
         <v>439</v>
       </c>
-      <c r="R41" s="22">
+      <c r="R41" s="8">
         <f>AK41-Q41-P41-O41</f>
         <v>-60</v>
       </c>
@@ -3868,7 +3889,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="7">
-        <f t="shared" ref="F42" si="38">F40-F41</f>
+        <f t="shared" ref="F42" si="40">F40-F41</f>
         <v>0</v>
       </c>
       <c r="G42" s="7">
@@ -3876,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="7">
-        <f t="shared" ref="H42" si="39">H40-H41</f>
+        <f t="shared" ref="H42" si="41">H40-H41</f>
         <v>0</v>
       </c>
       <c r="I42" s="7">
@@ -3884,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="7">
-        <f t="shared" ref="J42" si="40">J40-J41</f>
+        <f t="shared" ref="J42" si="42">J40-J41</f>
         <v>0</v>
       </c>
       <c r="K42" s="7">
@@ -3892,19 +3913,19 @@
         <v>0</v>
       </c>
       <c r="L42" s="7">
-        <f t="shared" ref="L42:O42" si="41">L40-L41</f>
+        <f t="shared" ref="L42:O42" si="43">L40-L41</f>
         <v>0</v>
       </c>
       <c r="M42" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="N42" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="O42" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-44360</v>
       </c>
       <c r="P42" s="7">
@@ -3912,15 +3933,15 @@
         <v>-39529</v>
       </c>
       <c r="Q42" s="7">
-        <f t="shared" ref="Q42:S42" si="42">Q40-Q41</f>
+        <f t="shared" ref="Q42:S42" si="44">Q40-Q41</f>
         <v>-40236</v>
       </c>
       <c r="R42" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>-37841</v>
       </c>
       <c r="S42" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>-34444</v>
       </c>
       <c r="T42" s="7">
@@ -3928,35 +3949,35 @@
         <v>-37975</v>
       </c>
       <c r="U42" s="7">
-        <f t="shared" ref="U42:AB42" si="43">U40-U41</f>
+        <f t="shared" ref="U42:AB42" si="45">U40-U41</f>
         <v>-38004</v>
       </c>
       <c r="V42" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="W42" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="X42" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="Y42" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="Z42" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AA42" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AB42" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AG42" s="7">
@@ -3964,43 +3985,43 @@
         <v>0</v>
       </c>
       <c r="AH42" s="7">
-        <f t="shared" ref="AH42:AQ42" si="44">AH40-AH41</f>
+        <f t="shared" ref="AH42:AQ42" si="46">AH40-AH41</f>
         <v>-123714</v>
       </c>
       <c r="AI42" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>-127103</v>
       </c>
       <c r="AJ42" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>-137124</v>
       </c>
       <c r="AK42" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>-161966</v>
       </c>
       <c r="AL42" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AM42" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AN42" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AO42" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AP42" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AQ42" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
@@ -4010,95 +4031,95 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F43" s="15" t="e">
-        <f t="shared" ref="F43:AB43" si="45">F42/F22</f>
+        <f t="shared" ref="F43:AB43" si="47">F42/F22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G43" s="15" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H43" s="15" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I43" s="15" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J43" s="15" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K43" s="15" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L43" s="15" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M43" s="15" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N43" s="15" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O43" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-1.1054900690308271</v>
       </c>
       <c r="P43" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-0.81587203302373579</v>
       </c>
       <c r="Q43" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-0.80951231289232251</v>
       </c>
       <c r="R43" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-0.71431807456347329</v>
       </c>
       <c r="S43" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-0.65354913382539892</v>
       </c>
       <c r="T43" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-0.70636706906493552</v>
       </c>
       <c r="U43" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-0.68624052004333691</v>
       </c>
       <c r="V43" s="15" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W43" s="15" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X43" s="15" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y43" s="15" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z43" s="15" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA43" s="15" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB43" s="15" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4112,7 +4133,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F45" s="11" t="e">
-        <f t="shared" ref="F45" si="46">F42/F46</f>
+        <f t="shared" ref="F45" si="48">F42/F46</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G45" s="11" t="e">
@@ -4120,7 +4141,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H45" s="11" t="e">
-        <f t="shared" ref="H45" si="47">H42/H46</f>
+        <f t="shared" ref="H45" si="49">H42/H46</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I45" s="11" t="e">
@@ -4128,7 +4149,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J45" s="11" t="e">
-        <f t="shared" ref="J45" si="48">J42/J46</f>
+        <f t="shared" ref="J45" si="50">J42/J46</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K45" s="11" t="e">
@@ -4136,19 +4157,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L45" s="11" t="e">
-        <f t="shared" ref="L45:O45" si="49">L42/L46</f>
+        <f t="shared" ref="L45:O45" si="51">L42/L46</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M45" s="11" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N45" s="11" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O45" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>-0.16797367744934866</v>
       </c>
       <c r="P45" s="11">
@@ -4156,15 +4177,15 @@
         <v>-0.14848664744650653</v>
       </c>
       <c r="Q45" s="11">
-        <f t="shared" ref="Q45:S45" si="50">Q42/Q46</f>
+        <f t="shared" ref="Q45:S45" si="52">Q42/Q46</f>
         <v>-0.1501485246771149</v>
       </c>
       <c r="R45" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>-0.14165925427253273</v>
       </c>
       <c r="S45" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>-0.12647055571850271</v>
       </c>
       <c r="T45" s="11">
@@ -4172,35 +4193,35 @@
         <v>-0.1380642009477745</v>
       </c>
       <c r="U45" s="11">
-        <f t="shared" ref="U45:AB45" si="51">U42/U46</f>
+        <f t="shared" ref="U45:AB45" si="53">U42/U46</f>
         <v>-0.13372379715639743</v>
       </c>
       <c r="V45" s="11" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W45" s="11" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X45" s="11" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y45" s="11" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z45" s="11" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA45" s="11" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB45" s="11" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG45" s="11" t="e">
@@ -4208,43 +4229,43 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AH45" s="11">
-        <f t="shared" ref="AH45:AQ45" si="52">AH42/AH46</f>
+        <f t="shared" ref="AH45:AQ45" si="54">AH42/AH46</f>
         <v>-2.8862223140068219</v>
       </c>
       <c r="AI45" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>-2.8746952408700275</v>
       </c>
       <c r="AJ45" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>-1.7224259420529608</v>
       </c>
       <c r="AK45" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>-0.60632601615985404</v>
       </c>
       <c r="AL45" s="11" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM45" s="11" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN45" s="11" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO45" s="11" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP45" s="11" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ45" s="11" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4261,7 +4282,7 @@
       <c r="Q46" s="7">
         <v>267974.66100000002</v>
       </c>
-      <c r="R46" s="21">
+      <c r="R46" s="7">
         <f>AK46</f>
         <v>267126.91800000001</v>
       </c>
@@ -4486,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="6">
-        <f t="shared" ref="F55" si="53">SUM(F51:F54)</f>
+        <f t="shared" ref="F55" si="55">SUM(F51:F54)</f>
         <v>0</v>
       </c>
       <c r="G55" s="6">
@@ -4494,7 +4515,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="6">
-        <f t="shared" ref="H55" si="54">SUM(H51:H54)</f>
+        <f t="shared" ref="H55" si="56">SUM(H51:H54)</f>
         <v>0</v>
       </c>
       <c r="I55" s="6">
@@ -4502,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="J55" s="6">
-        <f t="shared" ref="J55" si="55">SUM(J51:J54)</f>
+        <f t="shared" ref="J55" si="57">SUM(J51:J54)</f>
         <v>125427</v>
       </c>
       <c r="K55" s="6">
@@ -4510,19 +4531,19 @@
         <v>0</v>
       </c>
       <c r="L55" s="6">
-        <f t="shared" ref="L55:O55" si="56">SUM(L51:L54)</f>
+        <f t="shared" ref="L55:O55" si="58">SUM(L51:L54)</f>
         <v>0</v>
       </c>
       <c r="M55" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="N55" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>551520</v>
       </c>
       <c r="O55" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>527262</v>
       </c>
       <c r="P55" s="6">
@@ -4530,15 +4551,15 @@
         <v>504105</v>
       </c>
       <c r="Q55" s="6">
-        <f t="shared" ref="Q55:S55" si="57">SUM(Q51:Q54)</f>
+        <f t="shared" ref="Q55:S55" si="59">SUM(Q51:Q54)</f>
         <v>480643</v>
       </c>
       <c r="R55" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>475655</v>
       </c>
       <c r="S55" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>434525</v>
       </c>
       <c r="T55" s="6">
@@ -4546,35 +4567,35 @@
         <v>427861</v>
       </c>
       <c r="U55" s="6">
-        <f t="shared" ref="U55:AB55" si="58">SUM(U51:U54)</f>
+        <f t="shared" ref="U55:AB55" si="60">SUM(U51:U54)</f>
         <v>387535</v>
       </c>
       <c r="V55" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="W55" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="X55" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="Y55" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="Z55" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="AA55" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="AB55" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="AG55" s="6">
@@ -4582,43 +4603,43 @@
         <v>0</v>
       </c>
       <c r="AH55" s="6">
-        <f t="shared" ref="AH55:AQ55" si="59">SUM(AH51:AH54)</f>
+        <f t="shared" ref="AH55:AQ55" si="61">SUM(AH51:AH54)</f>
         <v>0</v>
       </c>
       <c r="AI55" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>125427</v>
       </c>
       <c r="AJ55" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>551520</v>
       </c>
       <c r="AK55" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>475655</v>
       </c>
       <c r="AL55" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AM55" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AN55" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AO55" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AP55" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AQ55" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
     </row>
@@ -4632,11 +4653,11 @@
         <v>48</v>
       </c>
       <c r="J57" s="7">
-        <f t="shared" ref="J57:J63" si="60">AI57</f>
+        <f t="shared" ref="J57:J63" si="62">AI57</f>
         <v>159855</v>
       </c>
       <c r="N57" s="7">
-        <f t="shared" ref="N57:N63" si="61">AJ57</f>
+        <f t="shared" ref="N57:N63" si="63">AJ57</f>
         <v>133280</v>
       </c>
       <c r="O57" s="7">
@@ -4649,7 +4670,7 @@
         <v>115385</v>
       </c>
       <c r="R57" s="7">
-        <f t="shared" ref="R57:R63" si="62">AK57</f>
+        <f t="shared" ref="R57:R63" si="64">AK57</f>
         <v>108091</v>
       </c>
       <c r="S57" s="7">
@@ -4676,11 +4697,11 @@
         <v>49</v>
       </c>
       <c r="J58" s="7">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>11994</v>
       </c>
       <c r="N58" s="7">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>10768</v>
       </c>
       <c r="O58" s="7">
@@ -4693,7 +4714,7 @@
         <v>11181</v>
       </c>
       <c r="R58" s="7">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>11417</v>
       </c>
       <c r="S58" s="7">
@@ -4720,11 +4741,11 @@
         <v>50</v>
       </c>
       <c r="J59" s="7">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>88393</v>
       </c>
       <c r="N59" s="7">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>103219</v>
       </c>
       <c r="O59" s="7">
@@ -4737,7 +4758,7 @@
         <v>103219</v>
       </c>
       <c r="R59" s="7">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>112748</v>
       </c>
       <c r="S59" s="7">
@@ -4764,11 +4785,11 @@
         <v>51</v>
       </c>
       <c r="J60" s="7">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>5673</v>
       </c>
       <c r="N60" s="7">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>14197</v>
       </c>
       <c r="O60" s="7">
@@ -4781,7 +4802,7 @@
         <v>12419</v>
       </c>
       <c r="R60" s="7">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>14831</v>
       </c>
       <c r="S60" s="7">
@@ -4808,11 +4829,11 @@
         <v>52</v>
       </c>
       <c r="J61" s="7">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>4982</v>
       </c>
       <c r="N61" s="7">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>5743</v>
       </c>
       <c r="O61" s="7">
@@ -4825,7 +4846,7 @@
         <v>5163</v>
       </c>
       <c r="R61" s="7">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>5657</v>
       </c>
       <c r="S61" s="7">
@@ -4852,11 +4873,11 @@
         <v>53</v>
       </c>
       <c r="J62" s="7">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="N62" s="7">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="O62" s="7">
@@ -4869,7 +4890,7 @@
         <v>15806</v>
       </c>
       <c r="R62" s="7">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>20403</v>
       </c>
       <c r="S62" s="7">
@@ -4896,11 +4917,11 @@
         <v>54</v>
       </c>
       <c r="J63" s="7">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>2984</v>
       </c>
       <c r="N63" s="7">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>2714</v>
       </c>
       <c r="O63" s="8">
@@ -4913,7 +4934,7 @@
         <v>3412</v>
       </c>
       <c r="R63" s="7">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>3921</v>
       </c>
       <c r="S63" s="8">
@@ -4944,7 +4965,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="10">
-        <f t="shared" ref="F64" si="63">SUM(F57:F63)</f>
+        <f t="shared" ref="F64" si="65">SUM(F57:F63)</f>
         <v>0</v>
       </c>
       <c r="G64" s="10">
@@ -4952,7 +4973,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="10">
-        <f t="shared" ref="H64" si="64">SUM(H57:H63)</f>
+        <f t="shared" ref="H64" si="66">SUM(H57:H63)</f>
         <v>0</v>
       </c>
       <c r="I64" s="10">
@@ -4960,7 +4981,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="10">
-        <f t="shared" ref="J64" si="65">SUM(J57:J63)</f>
+        <f t="shared" ref="J64" si="67">SUM(J57:J63)</f>
         <v>273881</v>
       </c>
       <c r="K64" s="10">
@@ -4968,19 +4989,19 @@
         <v>0</v>
       </c>
       <c r="L64" s="10">
-        <f t="shared" ref="L64:O64" si="66">SUM(L57:L63)</f>
+        <f t="shared" ref="L64:O64" si="68">SUM(L57:L63)</f>
         <v>0</v>
       </c>
       <c r="M64" s="10">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="N64" s="10">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>269921</v>
       </c>
       <c r="O64" s="10">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>268732</v>
       </c>
       <c r="P64" s="10">
@@ -4988,15 +5009,15 @@
         <v>263789</v>
       </c>
       <c r="Q64" s="10">
-        <f t="shared" ref="Q64:S64" si="67">SUM(Q57:Q63)</f>
+        <f t="shared" ref="Q64:S64" si="69">SUM(Q57:Q63)</f>
         <v>266585</v>
       </c>
       <c r="R64" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>277068</v>
       </c>
       <c r="S64" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>288932</v>
       </c>
       <c r="T64" s="10">
@@ -5004,35 +5025,35 @@
         <v>292556</v>
       </c>
       <c r="U64" s="10">
-        <f t="shared" ref="U64:AB64" si="68">SUM(U57:U63)</f>
+        <f t="shared" ref="U64:AB64" si="70">SUM(U57:U63)</f>
         <v>325985</v>
       </c>
       <c r="V64" s="10">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="W64" s="10">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="X64" s="10">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="Y64" s="10">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="Z64" s="10">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AA64" s="10">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AB64" s="10">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AG64" s="10">
@@ -5040,43 +5061,43 @@
         <v>0</v>
       </c>
       <c r="AH64" s="10">
-        <f t="shared" ref="AH64:AQ64" si="69">SUM(AH57:AH63)</f>
+        <f t="shared" ref="AH64:AQ64" si="71">SUM(AH57:AH63)</f>
         <v>0</v>
       </c>
       <c r="AI64" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>273881</v>
       </c>
       <c r="AJ64" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>269921</v>
       </c>
       <c r="AK64" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>277068</v>
       </c>
       <c r="AL64" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AM64" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AN64" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AO64" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AP64" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AQ64" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
     </row>
@@ -5089,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="6">
-        <f t="shared" ref="F65" si="70">F64+F55</f>
+        <f t="shared" ref="F65" si="72">F64+F55</f>
         <v>0</v>
       </c>
       <c r="G65" s="6">
@@ -5097,7 +5118,7 @@
         <v>0</v>
       </c>
       <c r="H65" s="6">
-        <f t="shared" ref="H65" si="71">H64+H55</f>
+        <f t="shared" ref="H65" si="73">H64+H55</f>
         <v>0</v>
       </c>
       <c r="I65" s="6">
@@ -5105,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="6">
-        <f t="shared" ref="J65" si="72">J64+J55</f>
+        <f t="shared" ref="J65" si="74">J64+J55</f>
         <v>399308</v>
       </c>
       <c r="K65" s="6">
@@ -5113,19 +5134,19 @@
         <v>0</v>
       </c>
       <c r="L65" s="6">
-        <f t="shared" ref="L65:O65" si="73">L64+L55</f>
+        <f t="shared" ref="L65:O65" si="75">L64+L55</f>
         <v>0</v>
       </c>
       <c r="M65" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="N65" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>821441</v>
       </c>
       <c r="O65" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>795994</v>
       </c>
       <c r="P65" s="6">
@@ -5133,15 +5154,15 @@
         <v>767894</v>
       </c>
       <c r="Q65" s="6">
-        <f t="shared" ref="Q65:S65" si="74">Q64+Q55</f>
+        <f t="shared" ref="Q65:S65" si="76">Q64+Q55</f>
         <v>747228</v>
       </c>
       <c r="R65" s="6">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>752723</v>
       </c>
       <c r="S65" s="6">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>723457</v>
       </c>
       <c r="T65" s="6">
@@ -5149,35 +5170,35 @@
         <v>720417</v>
       </c>
       <c r="U65" s="6">
-        <f t="shared" ref="U65:AB65" si="75">U64+U55</f>
+        <f t="shared" ref="U65:AB65" si="77">U64+U55</f>
         <v>713520</v>
       </c>
       <c r="V65" s="6">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="W65" s="6">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="X65" s="6">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="Y65" s="6">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="Z65" s="6">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="AA65" s="6">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="AB65" s="6">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="AG65" s="6">
@@ -5185,43 +5206,43 @@
         <v>0</v>
       </c>
       <c r="AH65" s="6">
-        <f t="shared" ref="AH65:AQ65" si="76">AH64+AH55</f>
+        <f t="shared" ref="AH65:AQ65" si="78">AH64+AH55</f>
         <v>0</v>
       </c>
       <c r="AI65" s="6">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>399308</v>
       </c>
       <c r="AJ65" s="6">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>821441</v>
       </c>
       <c r="AK65" s="6">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>752723</v>
       </c>
       <c r="AL65" s="6">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="AM65" s="6">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="AN65" s="6">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="AO65" s="6">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="AP65" s="6">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="AQ65" s="6">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
     </row>
@@ -5235,11 +5256,11 @@
         <v>57</v>
       </c>
       <c r="J67" s="7">
-        <f t="shared" ref="J67:J73" si="77">AI67</f>
+        <f t="shared" ref="J67:J73" si="79">AI67</f>
         <v>1446</v>
       </c>
       <c r="N67" s="7">
-        <f t="shared" ref="N67:N73" si="78">AJ67</f>
+        <f t="shared" ref="N67:N73" si="80">AJ67</f>
         <v>2850</v>
       </c>
       <c r="O67" s="7">
@@ -5252,7 +5273,7 @@
         <v>2557</v>
       </c>
       <c r="R67" s="7">
-        <f t="shared" ref="R67:R73" si="79">AK67</f>
+        <f t="shared" ref="R67:R73" si="81">AK67</f>
         <v>6900</v>
       </c>
       <c r="S67" s="7">
@@ -5279,11 +5300,11 @@
         <v>58</v>
       </c>
       <c r="J68" s="7">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>30195</v>
       </c>
       <c r="N68" s="7">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>48823</v>
       </c>
       <c r="O68" s="7">
@@ -5296,7 +5317,7 @@
         <v>42629</v>
       </c>
       <c r="R68" s="7">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>46022</v>
       </c>
       <c r="S68" s="7">
@@ -5323,11 +5344,11 @@
         <v>59</v>
       </c>
       <c r="J69" s="7">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>57570</v>
       </c>
       <c r="N69" s="7">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>64233</v>
       </c>
       <c r="O69" s="7">
@@ -5340,7 +5361,7 @@
         <v>47698</v>
       </c>
       <c r="R69" s="7">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>51900</v>
       </c>
       <c r="S69" s="7">
@@ -5367,11 +5388,11 @@
         <v>60</v>
       </c>
       <c r="J70" s="7">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="N70" s="7">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>16135</v>
       </c>
       <c r="O70" s="7">
@@ -5384,7 +5405,7 @@
         <v>13446</v>
       </c>
       <c r="R70" s="7">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>12550</v>
       </c>
       <c r="S70" s="7">
@@ -5411,11 +5432,11 @@
         <v>61</v>
       </c>
       <c r="J71" s="7">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="N71" s="7">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="O71" s="7">
@@ -5428,7 +5449,7 @@
         <v>3538</v>
       </c>
       <c r="R71" s="7">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>4885</v>
       </c>
       <c r="S71" s="7">
@@ -5455,11 +5476,11 @@
         <v>118</v>
       </c>
       <c r="J72" s="7">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>8244</v>
       </c>
       <c r="N72" s="7">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="O72" s="7">
@@ -5472,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="R72" s="7">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="S72" s="7">
@@ -5499,11 +5520,11 @@
         <v>119</v>
       </c>
       <c r="J73" s="8">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>11359</v>
       </c>
       <c r="N73" s="8">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="O73" s="8">
@@ -5516,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="R73" s="8">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="S73" s="8">
@@ -5547,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="F74" s="6">
-        <f t="shared" ref="F74" si="80">SUM(F67:F71)</f>
+        <f t="shared" ref="F74" si="82">SUM(F67:F71)</f>
         <v>0</v>
       </c>
       <c r="G74" s="6">
@@ -5555,7 +5576,7 @@
         <v>0</v>
       </c>
       <c r="H74" s="6">
-        <f t="shared" ref="H74" si="81">SUM(H67:H71)</f>
+        <f t="shared" ref="H74" si="83">SUM(H67:H71)</f>
         <v>0</v>
       </c>
       <c r="I74" s="6">
@@ -5563,7 +5584,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="6">
-        <f t="shared" ref="J74" si="82">SUM(J67:J71)</f>
+        <f t="shared" ref="J74" si="84">SUM(J67:J71)</f>
         <v>89211</v>
       </c>
       <c r="K74" s="6">
@@ -5571,15 +5592,15 @@
         <v>0</v>
       </c>
       <c r="L74" s="6">
-        <f t="shared" ref="L74:O74" si="83">SUM(L67:L71)</f>
+        <f t="shared" ref="L74:N74" si="85">SUM(L67:L71)</f>
         <v>0</v>
       </c>
       <c r="M74" s="6">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="N74" s="6">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>132041</v>
       </c>
       <c r="O74" s="6">
@@ -5595,7 +5616,7 @@
         <v>109868</v>
       </c>
       <c r="R74" s="6">
-        <f t="shared" ref="Q74:R74" si="84">SUM(R67:R71)</f>
+        <f t="shared" ref="R74" si="86">SUM(R67:R71)</f>
         <v>122257</v>
       </c>
       <c r="S74" s="6">
@@ -5607,35 +5628,35 @@
         <v>116259</v>
       </c>
       <c r="U74" s="6">
-        <f t="shared" ref="U74:AB74" si="85">SUM(U67:U73)</f>
+        <f t="shared" ref="U74:AB74" si="87">SUM(U67:U73)</f>
         <v>131138</v>
       </c>
       <c r="V74" s="6">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="W74" s="6">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="X74" s="6">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="Y74" s="6">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="Z74" s="6">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="AA74" s="6">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="AB74" s="6">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="AG74" s="6">
@@ -5643,7 +5664,7 @@
         <v>0</v>
       </c>
       <c r="AH74" s="6">
-        <f t="shared" ref="AH74:AQ74" si="86">SUM(AH67:AH71)</f>
+        <f t="shared" ref="AH74:AQ74" si="88">SUM(AH67:AH71)</f>
         <v>0</v>
       </c>
       <c r="AI74" s="6">
@@ -5659,27 +5680,27 @@
         <v>122257</v>
       </c>
       <c r="AL74" s="6">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="AM74" s="6">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="AN74" s="6">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="AO74" s="6">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="AP74" s="6">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="AQ74" s="6">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
     </row>
@@ -5693,11 +5714,11 @@
         <v>4</v>
       </c>
       <c r="J76" s="7">
-        <f t="shared" ref="J76:J84" si="87">AI76</f>
+        <f t="shared" ref="J76:J84" si="89">AI76</f>
         <v>62644</v>
       </c>
       <c r="N76" s="7">
-        <f t="shared" ref="N76:N84" si="88">AJ76</f>
+        <f t="shared" ref="N76:N84" si="90">AJ76</f>
         <v>0</v>
       </c>
       <c r="O76" s="7">
@@ -5710,7 +5731,7 @@
         <v>0</v>
       </c>
       <c r="R76" s="7">
-        <f t="shared" ref="R76:R84" si="89">AK76</f>
+        <f t="shared" ref="R76:R84" si="91">AK76</f>
         <v>0</v>
       </c>
       <c r="S76" s="7">
@@ -5737,11 +5758,11 @@
         <v>118</v>
       </c>
       <c r="J77" s="7">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>92968</v>
       </c>
       <c r="N77" s="7">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="O77" s="7">
@@ -5754,7 +5775,7 @@
         <v>0</v>
       </c>
       <c r="R77" s="7">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="S77" s="7">
@@ -5781,11 +5802,11 @@
         <v>59</v>
       </c>
       <c r="J78" s="7">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>15122</v>
       </c>
       <c r="N78" s="7">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>3579</v>
       </c>
       <c r="O78" s="7">
@@ -5798,7 +5819,7 @@
         <v>0</v>
       </c>
       <c r="R78" s="7">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>2882</v>
       </c>
       <c r="S78" s="7">
@@ -5825,11 +5846,11 @@
         <v>63</v>
       </c>
       <c r="J79" s="7">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>7971</v>
       </c>
       <c r="N79" s="7">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>12149</v>
       </c>
       <c r="O79" s="7">
@@ -5842,7 +5863,7 @@
         <v>9853</v>
       </c>
       <c r="R79" s="7">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>8679</v>
       </c>
       <c r="S79" s="7">
@@ -5869,11 +5890,11 @@
         <v>64</v>
       </c>
       <c r="J80" s="7">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="N80" s="7">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>23224</v>
       </c>
       <c r="O80" s="7">
@@ -5886,7 +5907,7 @@
         <v>17855</v>
       </c>
       <c r="R80" s="7">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>16670</v>
       </c>
       <c r="S80" s="7">
@@ -5913,11 +5934,11 @@
         <v>65</v>
       </c>
       <c r="J81" s="7">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>2991</v>
       </c>
       <c r="N81" s="7">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>798</v>
       </c>
       <c r="O81" s="7">
@@ -5930,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="R81" s="7">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="S81" s="7">
@@ -5957,11 +5978,11 @@
         <v>61</v>
       </c>
       <c r="J82" s="7">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="N82" s="7">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="O82" s="7">
@@ -5974,7 +5995,7 @@
         <v>14024</v>
       </c>
       <c r="R82" s="7">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>17145</v>
       </c>
       <c r="S82" s="7">
@@ -6001,11 +6022,11 @@
         <v>66</v>
       </c>
       <c r="J83" s="7">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="N83" s="7">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="O83" s="7">
@@ -6018,7 +6039,7 @@
         <v>0</v>
       </c>
       <c r="R83" s="7">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>7499</v>
       </c>
       <c r="S83" s="7">
@@ -6045,11 +6066,11 @@
         <v>67</v>
       </c>
       <c r="J84" s="7">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>1287</v>
       </c>
       <c r="N84" s="7">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>1405</v>
       </c>
       <c r="O84" s="8">
@@ -6062,7 +6083,7 @@
         <v>1461</v>
       </c>
       <c r="R84" s="7">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>1487</v>
       </c>
       <c r="S84" s="7">
@@ -6093,7 +6114,7 @@
         <v>0</v>
       </c>
       <c r="F85" s="10">
-        <f t="shared" ref="F85" si="90">SUM(F76:F84)</f>
+        <f t="shared" ref="F85" si="92">SUM(F76:F84)</f>
         <v>0</v>
       </c>
       <c r="G85" s="10">
@@ -6101,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="H85" s="10">
-        <f t="shared" ref="H85" si="91">SUM(H76:H84)</f>
+        <f t="shared" ref="H85" si="93">SUM(H76:H84)</f>
         <v>0</v>
       </c>
       <c r="I85" s="10">
@@ -6109,7 +6130,7 @@
         <v>0</v>
       </c>
       <c r="J85" s="10">
-        <f t="shared" ref="J85" si="92">SUM(J76:J84)</f>
+        <f t="shared" ref="J85" si="94">SUM(J76:J84)</f>
         <v>182983</v>
       </c>
       <c r="K85" s="10">
@@ -6117,19 +6138,19 @@
         <v>0</v>
       </c>
       <c r="L85" s="10">
-        <f t="shared" ref="L85:O85" si="93">SUM(L76:L84)</f>
+        <f t="shared" ref="L85:O85" si="95">SUM(L76:L84)</f>
         <v>0</v>
       </c>
       <c r="M85" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="N85" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>41155</v>
       </c>
       <c r="O85" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>35837</v>
       </c>
       <c r="P85" s="10">
@@ -6137,15 +6158,15 @@
         <v>31971</v>
       </c>
       <c r="Q85" s="10">
-        <f t="shared" ref="Q85:S85" si="94">SUM(Q76:Q84)</f>
+        <f t="shared" ref="Q85:S85" si="96">SUM(Q76:Q84)</f>
         <v>43193</v>
       </c>
       <c r="R85" s="10">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>54362</v>
       </c>
       <c r="S85" s="10">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>52426</v>
       </c>
       <c r="T85" s="10">
@@ -6153,35 +6174,35 @@
         <v>64590</v>
       </c>
       <c r="U85" s="10">
-        <f t="shared" ref="U85:AB85" si="95">SUM(U76:U84)</f>
+        <f t="shared" ref="U85:AB85" si="97">SUM(U76:U84)</f>
         <v>48784</v>
       </c>
       <c r="V85" s="10">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="W85" s="10">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="X85" s="10">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="Y85" s="10">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="Z85" s="10">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="AA85" s="10">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="AB85" s="10">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="AG85" s="10">
@@ -6189,43 +6210,43 @@
         <v>0</v>
       </c>
       <c r="AH85" s="10">
-        <f t="shared" ref="AH85:AQ85" si="96">SUM(AH76:AH84)</f>
+        <f t="shared" ref="AH85:AQ85" si="98">SUM(AH76:AH84)</f>
         <v>0</v>
       </c>
       <c r="AI85" s="10">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>182983</v>
       </c>
       <c r="AJ85" s="10">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>41155</v>
       </c>
       <c r="AK85" s="10">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>54362</v>
       </c>
       <c r="AL85" s="10">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="AM85" s="10">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="AN85" s="10">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="AO85" s="10">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="AP85" s="10">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="AQ85" s="10">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
     </row>
@@ -6234,143 +6255,143 @@
         <v>69</v>
       </c>
       <c r="E86" s="6">
-        <f t="shared" ref="E86" si="97">E85+E74</f>
+        <f t="shared" ref="E86" si="99">E85+E74</f>
         <v>0</v>
       </c>
       <c r="F86" s="6">
-        <f t="shared" ref="F86" si="98">F85+F74</f>
+        <f t="shared" ref="F86" si="100">F85+F74</f>
         <v>0</v>
       </c>
       <c r="G86" s="6">
-        <f t="shared" ref="G86" si="99">G85+G74</f>
+        <f t="shared" ref="G86" si="101">G85+G74</f>
         <v>0</v>
       </c>
       <c r="H86" s="6">
-        <f t="shared" ref="H86" si="100">H85+H74</f>
+        <f t="shared" ref="H86" si="102">H85+H74</f>
         <v>0</v>
       </c>
       <c r="I86" s="6">
-        <f t="shared" ref="I86" si="101">I85+I74</f>
+        <f t="shared" ref="I86" si="103">I85+I74</f>
         <v>0</v>
       </c>
       <c r="J86" s="6">
-        <f t="shared" ref="J86" si="102">J85+J74</f>
+        <f t="shared" ref="J86" si="104">J85+J74</f>
         <v>272194</v>
       </c>
       <c r="K86" s="6">
-        <f t="shared" ref="K86" si="103">K85+K74</f>
+        <f t="shared" ref="K86" si="105">K85+K74</f>
         <v>0</v>
       </c>
       <c r="L86" s="6">
-        <f t="shared" ref="L86" si="104">L85+L74</f>
+        <f t="shared" ref="L86" si="106">L85+L74</f>
         <v>0</v>
       </c>
       <c r="M86" s="6">
-        <f t="shared" ref="M86" si="105">M85+M74</f>
+        <f t="shared" ref="M86" si="107">M85+M74</f>
         <v>0</v>
       </c>
       <c r="N86" s="6">
-        <f t="shared" ref="N86" si="106">N85+N74</f>
+        <f t="shared" ref="N86" si="108">N85+N74</f>
         <v>173196</v>
       </c>
       <c r="O86" s="6">
-        <f t="shared" ref="O86" si="107">O85+O74</f>
+        <f t="shared" ref="O86" si="109">O85+O74</f>
         <v>165288</v>
       </c>
       <c r="P86" s="6">
-        <f t="shared" ref="P86" si="108">P85+P74</f>
+        <f t="shared" ref="P86" si="110">P85+P74</f>
         <v>154251</v>
       </c>
       <c r="Q86" s="6">
-        <f t="shared" ref="Q86" si="109">Q85+Q74</f>
+        <f t="shared" ref="Q86" si="111">Q85+Q74</f>
         <v>153061</v>
       </c>
       <c r="R86" s="6">
-        <f t="shared" ref="R86" si="110">R85+R74</f>
+        <f t="shared" ref="R86" si="112">R85+R74</f>
         <v>176619</v>
       </c>
       <c r="S86" s="6">
-        <f t="shared" ref="S86" si="111">S85+S74</f>
+        <f t="shared" ref="S86" si="113">S85+S74</f>
         <v>164108</v>
       </c>
       <c r="T86" s="6">
-        <f t="shared" ref="T86:AB86" si="112">T85+T74</f>
+        <f t="shared" ref="T86:AB86" si="114">T85+T74</f>
         <v>180849</v>
       </c>
       <c r="U86" s="6">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>179922</v>
       </c>
       <c r="V86" s="6">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="W86" s="6">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="X86" s="6">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="Y86" s="6">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="Z86" s="6">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="AA86" s="6">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="AB86" s="6">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="AG86" s="6">
-        <f t="shared" ref="AG86" si="113">AG85+AG74</f>
+        <f t="shared" ref="AG86" si="115">AG85+AG74</f>
         <v>0</v>
       </c>
       <c r="AH86" s="6">
-        <f t="shared" ref="AH86" si="114">AH85+AH74</f>
+        <f t="shared" ref="AH86" si="116">AH85+AH74</f>
         <v>0</v>
       </c>
       <c r="AI86" s="6">
-        <f t="shared" ref="AI86" si="115">AI85+AI74</f>
+        <f t="shared" ref="AI86" si="117">AI85+AI74</f>
         <v>291797</v>
       </c>
       <c r="AJ86" s="6">
-        <f t="shared" ref="AJ86" si="116">AJ85+AJ74</f>
+        <f t="shared" ref="AJ86" si="118">AJ85+AJ74</f>
         <v>173196</v>
       </c>
       <c r="AK86" s="6">
-        <f t="shared" ref="AK86" si="117">AK85+AK74</f>
+        <f t="shared" ref="AK86" si="119">AK85+AK74</f>
         <v>176619</v>
       </c>
       <c r="AL86" s="6">
-        <f t="shared" ref="AL86" si="118">AL85+AL74</f>
+        <f t="shared" ref="AL86" si="120">AL85+AL74</f>
         <v>0</v>
       </c>
       <c r="AM86" s="6">
-        <f t="shared" ref="AM86" si="119">AM85+AM74</f>
+        <f t="shared" ref="AM86" si="121">AM85+AM74</f>
         <v>0</v>
       </c>
       <c r="AN86" s="6">
-        <f t="shared" ref="AN86" si="120">AN85+AN74</f>
+        <f t="shared" ref="AN86" si="122">AN85+AN74</f>
         <v>0</v>
       </c>
       <c r="AO86" s="6">
-        <f t="shared" ref="AO86" si="121">AO85+AO74</f>
+        <f t="shared" ref="AO86" si="123">AO85+AO74</f>
         <v>0</v>
       </c>
       <c r="AP86" s="6">
-        <f t="shared" ref="AP86" si="122">AP85+AP74</f>
+        <f t="shared" ref="AP86" si="124">AP85+AP74</f>
         <v>0</v>
       </c>
       <c r="AQ86" s="6">
-        <f t="shared" ref="AQ86" si="123">AQ85+AQ74</f>
+        <f t="shared" ref="AQ86" si="125">AQ85+AQ74</f>
         <v>0</v>
       </c>
     </row>
@@ -6608,7 +6629,7 @@
         <v>0</v>
       </c>
       <c r="F93" s="10">
-        <f t="shared" ref="F93" si="124">SUM(F88:F92)</f>
+        <f t="shared" ref="F93" si="126">SUM(F88:F92)</f>
         <v>0</v>
       </c>
       <c r="G93" s="10">
@@ -6616,7 +6637,7 @@
         <v>0</v>
       </c>
       <c r="H93" s="10">
-        <f t="shared" ref="H93" si="125">SUM(H88:H92)</f>
+        <f t="shared" ref="H93" si="127">SUM(H88:H92)</f>
         <v>0</v>
       </c>
       <c r="I93" s="10">
@@ -6624,7 +6645,7 @@
         <v>0</v>
       </c>
       <c r="J93" s="10">
-        <f t="shared" ref="J93" si="126">SUM(J88:J92)</f>
+        <f t="shared" ref="J93" si="128">SUM(J88:J92)</f>
         <v>107511</v>
       </c>
       <c r="K93" s="10">
@@ -6632,19 +6653,19 @@
         <v>0</v>
       </c>
       <c r="L93" s="10">
-        <f t="shared" ref="L93:O93" si="127">SUM(L88:L92)</f>
+        <f t="shared" ref="L93:O93" si="129">SUM(L88:L92)</f>
         <v>0</v>
       </c>
       <c r="M93" s="10">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="N93" s="10">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>648245</v>
       </c>
       <c r="O93" s="10">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>630706</v>
       </c>
       <c r="P93" s="10">
@@ -6652,15 +6673,15 @@
         <v>613643</v>
       </c>
       <c r="Q93" s="10">
-        <f t="shared" ref="Q93:S93" si="128">SUM(Q88:Q92)</f>
+        <f t="shared" ref="Q93:S93" si="130">SUM(Q88:Q92)</f>
         <v>594167</v>
       </c>
       <c r="R93" s="10">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>576104</v>
       </c>
       <c r="S93" s="10">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>559349</v>
       </c>
       <c r="T93" s="10">
@@ -6668,35 +6689,35 @@
         <v>539568</v>
       </c>
       <c r="U93" s="10">
-        <f t="shared" ref="U93:AB93" si="129">SUM(U88:U92)</f>
+        <f t="shared" ref="U93:AB93" si="131">SUM(U88:U92)</f>
         <v>533598</v>
       </c>
       <c r="V93" s="10">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="W93" s="10">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="X93" s="10">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="Y93" s="10">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="Z93" s="10">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="AA93" s="10">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="AB93" s="10">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="AG93" s="10">
@@ -6704,43 +6725,43 @@
         <v>0</v>
       </c>
       <c r="AH93" s="10">
-        <f t="shared" ref="AH93:AQ93" si="130">SUM(AH88:AH92)</f>
+        <f t="shared" ref="AH93:AQ93" si="132">SUM(AH88:AH92)</f>
         <v>0</v>
       </c>
       <c r="AI93" s="10">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>107511</v>
       </c>
       <c r="AJ93" s="10">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>648245</v>
       </c>
       <c r="AK93" s="10">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>576104</v>
       </c>
       <c r="AL93" s="10">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="AM93" s="10">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="AN93" s="10">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="AO93" s="10">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="AP93" s="10">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="AQ93" s="10">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
     </row>
@@ -6749,143 +6770,143 @@
         <v>75</v>
       </c>
       <c r="E94" s="6">
-        <f t="shared" ref="E94" si="131">E93+E86</f>
+        <f t="shared" ref="E94" si="133">E93+E86</f>
         <v>0</v>
       </c>
       <c r="F94" s="6">
-        <f t="shared" ref="F94" si="132">F93+F86</f>
+        <f t="shared" ref="F94" si="134">F93+F86</f>
         <v>0</v>
       </c>
       <c r="G94" s="6">
-        <f t="shared" ref="G94" si="133">G93+G86</f>
+        <f t="shared" ref="G94" si="135">G93+G86</f>
         <v>0</v>
       </c>
       <c r="H94" s="6">
-        <f t="shared" ref="H94" si="134">H93+H86</f>
+        <f t="shared" ref="H94" si="136">H93+H86</f>
         <v>0</v>
       </c>
       <c r="I94" s="6">
-        <f t="shared" ref="I94" si="135">I93+I86</f>
+        <f t="shared" ref="I94" si="137">I93+I86</f>
         <v>0</v>
       </c>
       <c r="J94" s="6">
-        <f t="shared" ref="J94" si="136">J93+J86</f>
+        <f t="shared" ref="J94" si="138">J93+J86</f>
         <v>379705</v>
       </c>
       <c r="K94" s="6">
-        <f t="shared" ref="K94" si="137">K93+K86</f>
+        <f t="shared" ref="K94" si="139">K93+K86</f>
         <v>0</v>
       </c>
       <c r="L94" s="6">
-        <f t="shared" ref="L94" si="138">L93+L86</f>
+        <f t="shared" ref="L94" si="140">L93+L86</f>
         <v>0</v>
       </c>
       <c r="M94" s="6">
-        <f t="shared" ref="M94" si="139">M93+M86</f>
+        <f t="shared" ref="M94" si="141">M93+M86</f>
         <v>0</v>
       </c>
       <c r="N94" s="6">
-        <f t="shared" ref="N94" si="140">N93+N86</f>
+        <f t="shared" ref="N94" si="142">N93+N86</f>
         <v>821441</v>
       </c>
       <c r="O94" s="6">
-        <f t="shared" ref="O94" si="141">O93+O86</f>
+        <f t="shared" ref="O94" si="143">O93+O86</f>
         <v>795994</v>
       </c>
       <c r="P94" s="6">
-        <f t="shared" ref="P94" si="142">P93+P86</f>
+        <f t="shared" ref="P94" si="144">P93+P86</f>
         <v>767894</v>
       </c>
       <c r="Q94" s="6">
-        <f t="shared" ref="Q94" si="143">Q93+Q86</f>
+        <f t="shared" ref="Q94" si="145">Q93+Q86</f>
         <v>747228</v>
       </c>
       <c r="R94" s="6">
-        <f t="shared" ref="R94" si="144">R93+R86</f>
+        <f t="shared" ref="R94" si="146">R93+R86</f>
         <v>752723</v>
       </c>
       <c r="S94" s="6">
-        <f t="shared" ref="S94" si="145">S93+S86</f>
+        <f t="shared" ref="S94" si="147">S93+S86</f>
         <v>723457</v>
       </c>
       <c r="T94" s="6">
-        <f t="shared" ref="T94:AB94" si="146">T93+T86</f>
+        <f t="shared" ref="T94:AB94" si="148">T93+T86</f>
         <v>720417</v>
       </c>
       <c r="U94" s="6">
-        <f t="shared" si="146"/>
+        <f t="shared" si="148"/>
         <v>713520</v>
       </c>
       <c r="V94" s="6">
-        <f t="shared" si="146"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="W94" s="6">
-        <f t="shared" si="146"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="X94" s="6">
-        <f t="shared" si="146"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="Y94" s="6">
-        <f t="shared" si="146"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="Z94" s="6">
-        <f t="shared" si="146"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="AA94" s="6">
-        <f t="shared" si="146"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="AB94" s="6">
-        <f t="shared" si="146"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="AG94" s="6">
-        <f t="shared" ref="AG94" si="147">AG93+AG86</f>
+        <f t="shared" ref="AG94" si="149">AG93+AG86</f>
         <v>0</v>
       </c>
       <c r="AH94" s="6">
-        <f t="shared" ref="AH94" si="148">AH93+AH86</f>
+        <f t="shared" ref="AH94" si="150">AH93+AH86</f>
         <v>0</v>
       </c>
       <c r="AI94" s="6">
-        <f t="shared" ref="AI94" si="149">AI93+AI86</f>
+        <f t="shared" ref="AI94" si="151">AI93+AI86</f>
         <v>399308</v>
       </c>
       <c r="AJ94" s="6">
-        <f t="shared" ref="AJ94" si="150">AJ93+AJ86</f>
+        <f t="shared" ref="AJ94" si="152">AJ93+AJ86</f>
         <v>821441</v>
       </c>
       <c r="AK94" s="6">
-        <f t="shared" ref="AK94" si="151">AK93+AK86</f>
+        <f t="shared" ref="AK94" si="153">AK93+AK86</f>
         <v>752723</v>
       </c>
       <c r="AL94" s="6">
-        <f t="shared" ref="AL94" si="152">AL93+AL86</f>
+        <f t="shared" ref="AL94" si="154">AL93+AL86</f>
         <v>0</v>
       </c>
       <c r="AM94" s="6">
-        <f t="shared" ref="AM94" si="153">AM93+AM86</f>
+        <f t="shared" ref="AM94" si="155">AM93+AM86</f>
         <v>0</v>
       </c>
       <c r="AN94" s="6">
-        <f t="shared" ref="AN94" si="154">AN93+AN86</f>
+        <f t="shared" ref="AN94" si="156">AN93+AN86</f>
         <v>0</v>
       </c>
       <c r="AO94" s="6">
-        <f t="shared" ref="AO94" si="155">AO93+AO86</f>
+        <f t="shared" ref="AO94" si="157">AO93+AO86</f>
         <v>0</v>
       </c>
       <c r="AP94" s="6">
-        <f t="shared" ref="AP94" si="156">AP93+AP86</f>
+        <f t="shared" ref="AP94" si="158">AP93+AP86</f>
         <v>0</v>
       </c>
       <c r="AQ94" s="6">
-        <f t="shared" ref="AQ94" si="157">AQ93+AQ86</f>
+        <f t="shared" ref="AQ94" si="159">AQ93+AQ86</f>
         <v>0</v>
       </c>
     </row>
@@ -6989,7 +7010,7 @@
         <v>0</v>
       </c>
       <c r="F99" s="7">
-        <f t="shared" ref="F99" si="158">SUM(F97:F98)</f>
+        <f t="shared" ref="F99" si="160">SUM(F97:F98)</f>
         <v>0</v>
       </c>
       <c r="G99" s="7">
@@ -6997,7 +7018,7 @@
         <v>0</v>
       </c>
       <c r="H99" s="7">
-        <f t="shared" ref="H99" si="159">SUM(H97:H98)</f>
+        <f t="shared" ref="H99" si="161">SUM(H97:H98)</f>
         <v>0</v>
       </c>
       <c r="I99" s="7">
@@ -7005,7 +7026,7 @@
         <v>0</v>
       </c>
       <c r="J99" s="7">
-        <f t="shared" ref="J99" si="160">SUM(J97:J98)</f>
+        <f t="shared" ref="J99" si="162">SUM(J97:J98)</f>
         <v>0</v>
       </c>
       <c r="K99" s="7">
@@ -7013,19 +7034,19 @@
         <v>0</v>
       </c>
       <c r="L99" s="7">
-        <f t="shared" ref="L99:O99" si="161">SUM(L97:L98)</f>
+        <f t="shared" ref="L99:O99" si="163">SUM(L97:L98)</f>
         <v>0</v>
       </c>
       <c r="M99" s="7">
-        <f t="shared" si="161"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="N99" s="7">
-        <f t="shared" si="161"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="O99" s="7">
-        <f t="shared" si="161"/>
+        <f t="shared" si="163"/>
         <v>-9395</v>
       </c>
       <c r="P99" s="7">
@@ -7033,15 +7054,15 @@
         <v>-35313</v>
       </c>
       <c r="Q99" s="7">
-        <f t="shared" ref="Q99:S99" si="162">SUM(Q97:Q98)</f>
+        <f t="shared" ref="Q99:S99" si="164">SUM(Q97:Q98)</f>
         <v>-68126</v>
       </c>
       <c r="R99" s="7">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>-84373</v>
       </c>
       <c r="S99" s="7">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>-36937</v>
       </c>
       <c r="T99" s="7">
@@ -7049,35 +7070,35 @@
         <v>-42713</v>
       </c>
       <c r="U99" s="7">
-        <f t="shared" ref="U99:AB99" si="163">SUM(U97:U98)</f>
+        <f t="shared" ref="U99:AB99" si="165">SUM(U97:U98)</f>
         <v>-72960</v>
       </c>
       <c r="V99" s="7">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="W99" s="7">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="X99" s="7">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="Y99" s="7">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="Z99" s="7">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="AA99" s="7">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="AB99" s="7">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="AG99" s="7">
@@ -7093,35 +7114,35 @@
         <v>-30123</v>
       </c>
       <c r="AJ99" s="7">
-        <f t="shared" ref="AJ99:AQ99" si="164">SUM(AJ97:AJ98)</f>
+        <f t="shared" ref="AJ99:AQ99" si="166">SUM(AJ97:AJ98)</f>
         <v>-52524</v>
       </c>
       <c r="AK99" s="7">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>-84373</v>
       </c>
       <c r="AL99" s="7">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="AM99" s="7">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="AN99" s="7">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="AO99" s="7">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="AP99" s="7">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="AQ99" s="7">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
     </row>
@@ -7368,92 +7389,92 @@
         <v>0</v>
       </c>
       <c r="F109" s="7">
-        <f t="shared" ref="F109:AB109" si="165">SUM(F107:F108)</f>
+        <f t="shared" ref="F109:AB109" si="167">SUM(F107:F108)</f>
         <v>0</v>
       </c>
       <c r="G109" s="7">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="H109" s="7">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="I109" s="7">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="J109" s="7">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="K109" s="7">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="L109" s="7">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="M109" s="7">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="N109" s="7">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="O109" s="7">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>-9395</v>
       </c>
       <c r="P109" s="7">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>-25918</v>
       </c>
       <c r="Q109" s="7">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>-32813</v>
       </c>
       <c r="R109" s="7">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>-16247</v>
       </c>
       <c r="S109" s="7">
-        <f t="shared" ref="S109" si="166">SUM(S107:S108)</f>
+        <f t="shared" ref="S109" si="168">SUM(S107:S108)</f>
         <v>-36937</v>
       </c>
       <c r="T109" s="7">
-        <f t="shared" ref="T109" si="167">SUM(T107:T108)</f>
+        <f t="shared" ref="T109" si="169">SUM(T107:T108)</f>
         <v>-5776</v>
       </c>
       <c r="U109" s="7">
-        <f t="shared" ref="U109" si="168">SUM(U107:U108)</f>
+        <f t="shared" ref="U109" si="170">SUM(U107:U108)</f>
         <v>-30247</v>
       </c>
       <c r="V109" s="7"/>
       <c r="W109" s="7">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="X109" s="7">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="Y109" s="7">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="Z109" s="7">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="AA109" s="7">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="AB109" s="7">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
     </row>
@@ -7678,7 +7699,7 @@
         <v>0</v>
       </c>
       <c r="F125" s="7">
-        <f t="shared" ref="F125" si="169">SUM(F121:F124)</f>
+        <f t="shared" ref="F125" si="171">SUM(F121:F124)</f>
         <v>0</v>
       </c>
       <c r="G125" s="7">
@@ -7686,7 +7707,7 @@
         <v>0</v>
       </c>
       <c r="H125" s="7">
-        <f t="shared" ref="H125" si="170">SUM(H121:H124)</f>
+        <f t="shared" ref="H125" si="172">SUM(H121:H124)</f>
         <v>0</v>
       </c>
       <c r="I125" s="7">
@@ -7694,7 +7715,7 @@
         <v>0</v>
       </c>
       <c r="J125" s="7">
-        <f t="shared" ref="J125" si="171">SUM(J121:J124)</f>
+        <f t="shared" ref="J125" si="173">SUM(J121:J124)</f>
         <v>0</v>
       </c>
       <c r="K125" s="7">
@@ -7702,19 +7723,19 @@
         <v>0</v>
       </c>
       <c r="L125" s="7">
-        <f t="shared" ref="L125:O125" si="172">SUM(L121:L124)</f>
+        <f t="shared" ref="L125:O125" si="174">SUM(L121:L124)</f>
         <v>0</v>
       </c>
       <c r="M125" s="7">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>0</v>
       </c>
       <c r="N125" s="7">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>0</v>
       </c>
       <c r="O125" s="7">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>0</v>
       </c>
       <c r="P125" s="7">
@@ -7722,15 +7743,15 @@
         <v>0</v>
       </c>
       <c r="Q125" s="7">
-        <f t="shared" ref="Q125:S125" si="173">SUM(Q121:Q124)</f>
+        <f t="shared" ref="Q125:S125" si="175">SUM(Q121:Q124)</f>
         <v>37253</v>
       </c>
       <c r="R125" s="7">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>0</v>
       </c>
       <c r="S125" s="7">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>0</v>
       </c>
       <c r="T125" s="7">
@@ -7742,43 +7763,43 @@
         <v>0</v>
       </c>
       <c r="AH125" s="7">
-        <f t="shared" ref="AH125:AQ125" si="174">SUM(AH121:AH124)</f>
+        <f t="shared" ref="AH125:AQ125" si="176">SUM(AH121:AH124)</f>
         <v>0</v>
       </c>
       <c r="AI125" s="7">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>5673</v>
       </c>
       <c r="AJ125" s="7">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>14197</v>
       </c>
       <c r="AK125" s="7">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>14831</v>
       </c>
       <c r="AL125" s="7">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>0</v>
       </c>
       <c r="AM125" s="7">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>0</v>
       </c>
       <c r="AN125" s="7">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>0</v>
       </c>
       <c r="AO125" s="7">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>0</v>
       </c>
       <c r="AP125" s="7">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>0</v>
       </c>
       <c r="AQ125" s="7">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>0</v>
       </c>
     </row>
@@ -7787,248 +7808,248 @@
         <v>145</v>
       </c>
     </row>
-    <row r="128" spans="2:43" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B128" s="23" t="s">
+    <row r="128" spans="2:43" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B128" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="AG128" s="23" t="e">
+      <c r="AG128" s="15" t="e">
         <f>AG121/AG125</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH128" s="23" t="e">
-        <f t="shared" ref="AH128:AQ128" si="175">AH121/AH125</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI128" s="23">
-        <f t="shared" si="175"/>
+      <c r="AH128" s="15" t="e">
+        <f t="shared" ref="AH128:AQ128" si="177">AH121/AH125</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI128" s="15">
+        <f t="shared" si="177"/>
         <v>0.21011810329631589</v>
       </c>
-      <c r="AJ128" s="23">
-        <f t="shared" si="175"/>
+      <c r="AJ128" s="15">
+        <f t="shared" si="177"/>
         <v>0.63147143762766778</v>
       </c>
-      <c r="AK128" s="23">
-        <f t="shared" si="175"/>
+      <c r="AK128" s="15">
+        <f t="shared" si="177"/>
         <v>0.65673251972220348</v>
       </c>
-      <c r="AL128" s="23" t="e">
-        <f t="shared" si="175"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM128" s="23" t="e">
-        <f t="shared" si="175"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN128" s="23" t="e">
-        <f t="shared" si="175"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO128" s="23" t="e">
-        <f t="shared" si="175"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP128" s="23" t="e">
-        <f t="shared" si="175"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ128" s="23" t="e">
-        <f t="shared" si="175"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="129" spans="2:43" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B129" s="23" t="s">
+      <c r="AL128" s="15" t="e">
+        <f t="shared" si="177"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM128" s="15" t="e">
+        <f t="shared" si="177"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN128" s="15" t="e">
+        <f t="shared" si="177"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO128" s="15" t="e">
+        <f t="shared" si="177"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP128" s="15" t="e">
+        <f t="shared" si="177"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ128" s="15" t="e">
+        <f t="shared" si="177"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="129" spans="2:43" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B129" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="AG129" s="23" t="e">
+      <c r="AG129" s="15" t="e">
         <f>AG122/AG125</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH129" s="23" t="e">
-        <f t="shared" ref="AH129:AQ129" si="176">AH122/AH125</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI129" s="23">
-        <f t="shared" si="176"/>
+      <c r="AH129" s="15" t="e">
+        <f t="shared" ref="AH129:AQ129" si="178">AH122/AH125</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI129" s="15">
+        <f t="shared" si="178"/>
         <v>0.23462013044244667</v>
       </c>
-      <c r="AJ129" s="23">
-        <f t="shared" si="176"/>
+      <c r="AJ129" s="15">
+        <f t="shared" si="178"/>
         <v>0.10720574769317462</v>
       </c>
-      <c r="AK129" s="23">
-        <f t="shared" si="176"/>
+      <c r="AK129" s="15">
+        <f t="shared" si="178"/>
         <v>0.10862382846739936</v>
       </c>
-      <c r="AL129" s="23" t="e">
-        <f t="shared" si="176"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM129" s="23" t="e">
-        <f t="shared" si="176"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN129" s="23" t="e">
-        <f t="shared" si="176"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO129" s="23" t="e">
-        <f t="shared" si="176"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP129" s="23" t="e">
-        <f t="shared" si="176"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ129" s="23" t="e">
-        <f t="shared" si="176"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="130" spans="2:43" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B130" s="23" t="s">
+      <c r="AL129" s="15" t="e">
+        <f t="shared" si="178"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM129" s="15" t="e">
+        <f t="shared" si="178"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN129" s="15" t="e">
+        <f t="shared" si="178"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO129" s="15" t="e">
+        <f t="shared" si="178"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP129" s="15" t="e">
+        <f t="shared" si="178"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ129" s="15" t="e">
+        <f t="shared" si="178"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="130" spans="2:43" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B130" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="AG130" s="23" t="e">
+      <c r="AG130" s="15" t="e">
         <f>AG123/AG125</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH130" s="23" t="e">
-        <f t="shared" ref="AH130:AQ130" si="177">AH123/AH125</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI130" s="23">
-        <f t="shared" si="177"/>
+      <c r="AH130" s="15" t="e">
+        <f t="shared" ref="AH130:AQ130" si="179">AH123/AH125</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI130" s="15">
+        <f t="shared" si="179"/>
         <v>0.29508196721311475</v>
       </c>
-      <c r="AJ130" s="23">
-        <f t="shared" si="177"/>
+      <c r="AJ130" s="15">
+        <f t="shared" si="179"/>
         <v>0.1266464746073114</v>
       </c>
-      <c r="AK130" s="23">
-        <f t="shared" si="177"/>
+      <c r="AK130" s="15">
+        <f t="shared" si="179"/>
         <v>0.14523632931022856</v>
       </c>
-      <c r="AL130" s="23" t="e">
-        <f t="shared" si="177"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM130" s="23" t="e">
-        <f t="shared" si="177"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN130" s="23" t="e">
-        <f t="shared" si="177"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO130" s="23" t="e">
-        <f t="shared" si="177"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP130" s="23" t="e">
-        <f t="shared" si="177"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ130" s="23" t="e">
-        <f t="shared" si="177"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="131" spans="2:43" s="24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B131" s="24" t="s">
+      <c r="AL130" s="15" t="e">
+        <f t="shared" si="179"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM130" s="15" t="e">
+        <f t="shared" si="179"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN130" s="15" t="e">
+        <f t="shared" si="179"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO130" s="15" t="e">
+        <f t="shared" si="179"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP130" s="15" t="e">
+        <f t="shared" si="179"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ130" s="15" t="e">
+        <f t="shared" si="179"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="131" spans="2:43" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B131" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="AG131" s="24" t="e">
+      <c r="AG131" s="21" t="e">
         <f>AG124/AG125</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH131" s="24" t="e">
-        <f t="shared" ref="AH131:AQ131" si="178">AH124/AH125</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI131" s="24">
-        <f t="shared" si="178"/>
+      <c r="AH131" s="21" t="e">
+        <f t="shared" ref="AH131:AQ131" si="180">AH124/AH125</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI131" s="21">
+        <f t="shared" si="180"/>
         <v>0.26017979904812266</v>
       </c>
-      <c r="AJ131" s="24">
-        <f t="shared" si="178"/>
+      <c r="AJ131" s="21">
+        <f t="shared" si="180"/>
         <v>0.13467634007184617</v>
       </c>
-      <c r="AK131" s="24">
-        <f t="shared" si="178"/>
+      <c r="AK131" s="21">
+        <f t="shared" si="180"/>
         <v>8.9407322500168571E-2</v>
       </c>
-      <c r="AL131" s="24" t="e">
-        <f t="shared" si="178"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM131" s="24" t="e">
-        <f t="shared" si="178"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN131" s="24" t="e">
-        <f t="shared" si="178"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO131" s="24" t="e">
-        <f t="shared" si="178"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP131" s="24" t="e">
-        <f t="shared" si="178"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ131" s="24" t="e">
-        <f t="shared" si="178"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="132" spans="2:43" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B132" s="25" t="s">
+      <c r="AL131" s="21" t="e">
+        <f t="shared" si="180"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM131" s="21" t="e">
+        <f t="shared" si="180"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN131" s="21" t="e">
+        <f t="shared" si="180"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO131" s="21" t="e">
+        <f t="shared" si="180"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP131" s="21" t="e">
+        <f t="shared" si="180"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ131" s="21" t="e">
+        <f t="shared" si="180"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="132" spans="2:43" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B132" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="AG132" s="23" t="e">
+      <c r="AG132" s="15" t="e">
         <f>SUM(AG128:AG131)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH132" s="23" t="e">
-        <f t="shared" ref="AH132:AQ132" si="179">SUM(AH128:AH131)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI132" s="23">
-        <f t="shared" si="179"/>
+      <c r="AH132" s="15" t="e">
+        <f t="shared" ref="AH132:AQ132" si="181">SUM(AH128:AH131)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI132" s="15">
+        <f t="shared" si="181"/>
         <v>1</v>
       </c>
-      <c r="AJ132" s="23">
-        <f t="shared" si="179"/>
+      <c r="AJ132" s="15">
+        <f t="shared" si="181"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="AK132" s="23">
-        <f t="shared" si="179"/>
+      <c r="AK132" s="15">
+        <f t="shared" si="181"/>
         <v>1</v>
       </c>
-      <c r="AL132" s="23" t="e">
-        <f t="shared" si="179"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM132" s="23" t="e">
-        <f t="shared" si="179"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN132" s="23" t="e">
-        <f t="shared" si="179"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO132" s="23" t="e">
-        <f t="shared" si="179"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP132" s="23" t="e">
-        <f t="shared" si="179"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ132" s="23" t="e">
-        <f t="shared" si="179"/>
+      <c r="AL132" s="15" t="e">
+        <f t="shared" si="181"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM132" s="15" t="e">
+        <f t="shared" si="181"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN132" s="15" t="e">
+        <f t="shared" si="181"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO132" s="15" t="e">
+        <f t="shared" si="181"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP132" s="15" t="e">
+        <f t="shared" si="181"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ132" s="15" t="e">
+        <f t="shared" si="181"/>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/PL/PL.xlsx
+++ b/PL/PL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/534a1defcf7f9d1a/Company Models CloudSave/PL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1443" documentId="8_{DD1FE8FB-81A2-451C-9233-98A045FFB118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6B29C0B-2361-46E6-87D2-1B92B7B0FF65}"/>
+  <xr:revisionPtr revIDLastSave="1549" documentId="8_{DD1FE8FB-81A2-451C-9233-98A045FFB118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77CE7508-1763-4359-A4D4-A1E705C256E1}"/>
   <bookViews>
-    <workbookView xWindow="5560" yWindow="3580" windowWidth="28800" windowHeight="15460" activeTab="3" xr2:uid="{F70D17C0-3989-48E5-BF07-6389F34DDC43}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19190" windowHeight="21600" activeTab="1" xr2:uid="{F70D17C0-3989-48E5-BF07-6389F34DDC43}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="155">
   <si>
     <t>Price</t>
   </si>
@@ -665,13 +665,36 @@
   <si>
     <t>Contracts *in millions, USD</t>
   </si>
+  <si>
+    <t>Stock Statistics</t>
+  </si>
+  <si>
+    <t>Marketcap</t>
+  </si>
+  <si>
+    <t>P/S</t>
+  </si>
+  <si>
+    <t>P/E</t>
+  </si>
+  <si>
+    <t>P/B</t>
+  </si>
+  <si>
+    <t>P/FCF</t>
+  </si>
+  <si>
+    <t>Net Margin</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -829,7 +852,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -854,6 +877,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1125,36 +1150,36 @@
     <v>4</v>
     <v>5</v>
     <v>1.99</v>
-    <v>1.486</v>
-    <v>-0.01</v>
-    <v>-1.1758999999999999E-2</v>
-    <v>-4.6080000000000001E-3</v>
-    <v>-2.5399999999999999E-2</v>
+    <v>1.506</v>
+    <v>0</v>
+    <v>-1.1725000000000001E-2</v>
+    <v>0</v>
+    <v>-2.9899999999999999E-2</v>
     <v>USD</v>
     <v>Planet Labs PBC is a provider of global, daily satellite imagery and geospatial solutions. The Company designs, builds, and operates the earth observation fleet of imaging satellites, capturing, and compiling data. Its satellite data and analytics reveal actionable insights regarding a large array of important phenomena, such as deforestation, agriculture, climate change, biodiversity, and supply chains worldwide. Its daily stream of proprietary data and machine learning analytics, delivered over its cloud-native platform, helps companies, governments, and civil society use satellite imagery to discover insights as change happens. It serves approximately 880 customers across large commercial and government verticals, including agriculture, mapping, forestry, finance, and insurance, as well as federal, state, and local government bodies. It also owns Sentinel Hub, an advanced API-driven, cloud streaming platform that allows customers to access multi-source earth observation (EO) data.</v>
-    <v>930</v>
+    <v>1020</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
     <v>645 Harrison Street, Floor 4, SAN FRANCISCO, CA, 94107 US</v>
-    <v>2.19</v>
+    <v>2.67</v>
     <v>Aerospace &amp; Defense</v>
     <v>Stock</v>
-    <v>45365.958333356248</v>
+    <v>45379.999994409372</v>
     <v>0</v>
-    <v>2.13</v>
-    <v>621271944</v>
+    <v>2.5249999999999999</v>
+    <v>733446045</v>
     <v>PLANET LABS PBC</v>
     <v>PLANET LABS PBC</v>
-    <v>2.19</v>
-    <v>2.17</v>
-    <v>2.16</v>
-    <v>2.1345999999999998</v>
+    <v>2.57</v>
+    <v>2.5499999999999998</v>
+    <v>2.5499999999999998</v>
+    <v>2.5200999999999998</v>
     <v>287625900</v>
     <v>PL</v>
     <v>PLANET LABS PBC (XNYS:PL)</v>
-    <v>1123529</v>
-    <v>1011461</v>
+    <v>2518136</v>
+    <v>1256632</v>
     <v>2020</v>
   </rv>
   <rv s="2">
@@ -1754,7 +1779,7 @@
       </c>
       <c r="B2" s="2" cm="1">
         <f t="array" ref="B2">_FV(A1,"Price")</f>
-        <v>2.16</v>
+        <v>2.5499999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1775,7 +1800,7 @@
       </c>
       <c r="B4" s="2">
         <f>B2*B3</f>
-        <v>621.27194400000008</v>
+        <v>733.44604499999991</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -1805,8 +1830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DE2F57-14F3-4638-BFD4-4FE3C31DB2B0}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2061,13 +2086,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00CF7327-85EC-4667-AB8E-19718FCEEFDC}">
-  <dimension ref="A1:AQ132"/>
+  <dimension ref="A1:AQ142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="7" topLeftCell="L71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomRight" activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2078,7 +2103,9 @@
     <col min="18" max="20" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="22" max="30" width="10.453125" customWidth="1"/>
-    <col min="36" max="37" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.35">
@@ -2129,6 +2156,9 @@
       <c r="AK2" s="13">
         <v>45015</v>
       </c>
+      <c r="AL2" s="13">
+        <v>45380</v>
+      </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
@@ -2189,15 +2219,45 @@
       <c r="B5" t="s">
         <v>35</v>
       </c>
+      <c r="AJ5">
+        <v>12.15</v>
+      </c>
+      <c r="AK5">
+        <v>7.51</v>
+      </c>
+      <c r="AL5">
+        <v>5.18</v>
+      </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
+      <c r="AJ6">
+        <v>4.95</v>
+      </c>
+      <c r="AK6">
+        <v>3.7</v>
+      </c>
+      <c r="AL6">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="20" t="s">
         <v>37</v>
+      </c>
+      <c r="AJ7" s="20">
+        <v>9.35</v>
+      </c>
+      <c r="AK7" s="20">
+        <v>5.27</v>
+      </c>
+      <c r="AL7" s="20">
+        <v>3.28</v>
+      </c>
+      <c r="AQ7" s="20">
+        <v>2.5499999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -2552,6 +2612,9 @@
       <c r="AK22" s="6">
         <v>191256</v>
       </c>
+      <c r="AL22" s="6">
+        <v>220696</v>
+      </c>
     </row>
     <row r="23" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B23" s="8" t="s">
@@ -2591,6 +2654,9 @@
       <c r="AK23" s="8">
         <v>97248</v>
       </c>
+      <c r="AL23" s="8">
+        <v>107746</v>
+      </c>
     </row>
     <row r="24" spans="1:43" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B24" s="7" t="s">
@@ -2714,7 +2780,7 @@
       </c>
       <c r="AL24" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>112950</v>
       </c>
       <c r="AM24" s="7">
         <f t="shared" si="13"/>
@@ -2837,6 +2903,50 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AG25" s="15" t="e">
+        <f>AG24/AG22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH25" s="15">
+        <f t="shared" ref="AH25:AQ25" si="15">AH24/AH22</f>
+        <v>-6.9534971170719481E-2</v>
+      </c>
+      <c r="AI25" s="15">
+        <f t="shared" si="15"/>
+        <v>0.22784709458504171</v>
+      </c>
+      <c r="AJ25" s="15">
+        <f t="shared" si="15"/>
+        <v>0.36752052069598884</v>
+      </c>
+      <c r="AK25" s="15">
+        <f t="shared" si="15"/>
+        <v>0.49152967750031373</v>
+      </c>
+      <c r="AL25" s="15">
+        <f t="shared" si="15"/>
+        <v>0.51178997353826072</v>
+      </c>
+      <c r="AM25" s="15" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN25" s="15" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO25" s="15" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP25" s="15" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ25" s="15" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="26" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B26" s="9" t="s">
@@ -2881,6 +2991,9 @@
       <c r="AK27" s="7">
         <v>110916</v>
       </c>
+      <c r="AL27" s="7">
+        <v>116339</v>
+      </c>
     </row>
     <row r="28" spans="1:43" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B28" s="7" t="s">
@@ -2920,6 +3033,9 @@
       <c r="AK28" s="7">
         <v>78020</v>
       </c>
+      <c r="AL28" s="7">
+        <v>86304</v>
+      </c>
     </row>
     <row r="29" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B29" s="8" t="s">
@@ -2959,6 +3075,9 @@
       <c r="AK29" s="8">
         <v>80747</v>
       </c>
+      <c r="AL29" s="8">
+        <v>80055</v>
+      </c>
     </row>
     <row r="30" spans="1:43" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B30" s="12" t="s">
@@ -2969,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="12">
-        <f t="shared" ref="F30" si="15">SUM(F27:F29)</f>
+        <f t="shared" ref="F30" si="16">SUM(F27:F29)</f>
         <v>0</v>
       </c>
       <c r="G30" s="12">
@@ -2977,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="12">
-        <f t="shared" ref="H30" si="16">SUM(H27:H29)</f>
+        <f t="shared" ref="H30" si="17">SUM(H27:H29)</f>
         <v>0</v>
       </c>
       <c r="I30" s="12">
@@ -2985,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="12">
-        <f t="shared" ref="J30" si="17">SUM(J27:J29)</f>
+        <f t="shared" ref="J30" si="18">SUM(J27:J29)</f>
         <v>0</v>
       </c>
       <c r="K30" s="12">
@@ -2993,19 +3112,19 @@
         <v>0</v>
       </c>
       <c r="L30" s="12">
-        <f t="shared" ref="L30:O30" si="18">SUM(L27:L29)</f>
+        <f t="shared" ref="L30:O30" si="19">SUM(L27:L29)</f>
         <v>0</v>
       </c>
       <c r="M30" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N30" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="O30" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>64213</v>
       </c>
       <c r="P30" s="12">
@@ -3013,15 +3132,15 @@
         <v>66113</v>
       </c>
       <c r="Q30" s="12">
-        <f t="shared" ref="Q30:S30" si="19">SUM(Q27:Q29)</f>
+        <f t="shared" ref="Q30:S30" si="20">SUM(Q27:Q29)</f>
         <v>67608</v>
       </c>
       <c r="R30" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>71749</v>
       </c>
       <c r="S30" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>72839</v>
       </c>
       <c r="T30" s="12">
@@ -3029,35 +3148,35 @@
         <v>69572</v>
       </c>
       <c r="U30" s="12">
-        <f t="shared" ref="U30:AB30" si="20">SUM(U27:U29)</f>
+        <f t="shared" ref="U30:AB30" si="21">SUM(U27:U29)</f>
         <v>73888</v>
       </c>
       <c r="V30" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="W30" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X30" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Y30" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Z30" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AA30" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AB30" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AG30" s="12">
@@ -3065,43 +3184,43 @@
         <v>0</v>
       </c>
       <c r="AH30" s="12">
-        <f t="shared" ref="AH30:AQ30" si="21">SUM(AH27:AH29)</f>
+        <f t="shared" ref="AH30:AQ30" si="22">SUM(AH27:AH29)</f>
         <v>99803</v>
       </c>
       <c r="AI30" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>113227</v>
       </c>
       <c r="AJ30" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>176273</v>
       </c>
       <c r="AK30" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>269683</v>
       </c>
       <c r="AL30" s="12">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>282698</v>
       </c>
       <c r="AM30" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AN30" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AO30" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AP30" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AQ30" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -3114,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="7">
-        <f t="shared" ref="F31" si="22">F24-F30</f>
+        <f t="shared" ref="F31" si="23">F24-F30</f>
         <v>0</v>
       </c>
       <c r="G31" s="7">
@@ -3122,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="7">
-        <f t="shared" ref="H31" si="23">H24-H30</f>
+        <f t="shared" ref="H31" si="24">H24-H30</f>
         <v>0</v>
       </c>
       <c r="I31" s="7">
@@ -3130,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="7">
-        <f t="shared" ref="J31" si="24">J24-J30</f>
+        <f t="shared" ref="J31" si="25">J24-J30</f>
         <v>0</v>
       </c>
       <c r="K31" s="7">
@@ -3138,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="L31" s="7">
-        <f t="shared" ref="L31:O31" si="25">L24-L30</f>
+        <f t="shared" ref="L31:O31" si="26">L24-L30</f>
         <v>0</v>
       </c>
       <c r="M31" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="N31" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O31" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-47714</v>
       </c>
       <c r="P31" s="7">
@@ -3158,15 +3277,15 @@
         <v>-42640</v>
       </c>
       <c r="Q31" s="7">
-        <f t="shared" ref="Q31:S31" si="26">Q24-Q30</f>
+        <f t="shared" ref="Q31:S31" si="27">Q24-Q30</f>
         <v>-42632</v>
       </c>
       <c r="R31" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-42689</v>
       </c>
       <c r="S31" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-44692</v>
       </c>
       <c r="T31" s="7">
@@ -3174,35 +3293,35 @@
         <v>-43280</v>
       </c>
       <c r="U31" s="7">
-        <f t="shared" ref="U31:AB31" si="27">U24-U30</f>
+        <f t="shared" ref="U31:AB31" si="28">U24-U30</f>
         <v>-47858</v>
       </c>
       <c r="V31" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W31" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="X31" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Y31" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Z31" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AA31" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AB31" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AG31" s="7">
@@ -3210,43 +3329,43 @@
         <v>0</v>
       </c>
       <c r="AH31" s="7">
-        <f t="shared" ref="AH31:AQ31" si="28">AH24-AH30</f>
+        <f t="shared" ref="AH31:AQ31" si="29">AH24-AH30</f>
         <v>-106460</v>
       </c>
       <c r="AI31" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-87442</v>
       </c>
       <c r="AJ31" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-128051</v>
       </c>
       <c r="AK31" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-175675</v>
       </c>
       <c r="AL31" s="7">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>-169748</v>
       </c>
       <c r="AM31" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AN31" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AO31" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AP31" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AQ31" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -3259,95 +3378,139 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F32" s="15" t="e">
-        <f t="shared" ref="F32:AB32" si="29">F31/F22</f>
+        <f t="shared" ref="F32:AB32" si="30">F31/F22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G32" s="15" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H32" s="15" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I32" s="15" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J32" s="15" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K32" s="15" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L32" s="15" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M32" s="15" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N32" s="15" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O32" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-1.1890746878660254</v>
       </c>
       <c r="P32" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-0.88008255933952528</v>
       </c>
       <c r="Q32" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-0.85771768871720588</v>
       </c>
       <c r="R32" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-0.80583294006606887</v>
       </c>
       <c r="S32" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-0.84799726770772066</v>
       </c>
       <c r="T32" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-0.80504454902252565</v>
       </c>
       <c r="U32" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-0.86417479234380645</v>
       </c>
       <c r="V32" s="15" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W32" s="15" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X32" s="15" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y32" s="15" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z32" s="15" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA32" s="15" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB32" s="15" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG32" s="15" t="e">
+        <f>AG31/AG22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH32" s="15">
+        <f t="shared" ref="AH32:AQ32" si="31">AH31/AH22</f>
+        <v>-1.1120163783738615</v>
+      </c>
+      <c r="AI32" s="15">
+        <f t="shared" si="31"/>
+        <v>-0.772674254206136</v>
+      </c>
+      <c r="AJ32" s="15">
+        <f t="shared" si="31"/>
+        <v>-0.9759315290871815</v>
+      </c>
+      <c r="AK32" s="15">
+        <f t="shared" si="31"/>
+        <v>-0.918533274773079</v>
+      </c>
+      <c r="AL32" s="15">
+        <f t="shared" si="31"/>
+        <v>-0.76914851198028056</v>
+      </c>
+      <c r="AM32" s="15" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN32" s="15" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO32" s="15" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP32" s="15" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ32" s="15" t="e">
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3394,6 +3557,9 @@
       <c r="AK34" s="7">
         <v>0</v>
       </c>
+      <c r="AL34" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="2:43" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B35" s="7" t="s">
@@ -3433,6 +3599,9 @@
       <c r="AK35" s="7">
         <v>7672</v>
       </c>
+      <c r="AL35" s="7">
+        <v>15414</v>
+      </c>
     </row>
     <row r="36" spans="2:43" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B36" s="7" t="s">
@@ -3472,6 +3641,9 @@
       <c r="AK36" s="7">
         <v>0</v>
       </c>
+      <c r="AL36" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="2:43" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B37" s="7" t="s">
@@ -3511,6 +3683,9 @@
       <c r="AK37" s="7">
         <v>6554</v>
       </c>
+      <c r="AL37" s="7">
+        <v>13709</v>
+      </c>
     </row>
     <row r="38" spans="2:43" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B38" s="8" t="s">
@@ -3550,6 +3725,9 @@
       <c r="AK38" s="8">
         <v>330</v>
       </c>
+      <c r="AL38" s="8">
+        <v>931</v>
+      </c>
     </row>
     <row r="39" spans="2:43" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B39" s="12" t="s">
@@ -3560,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="12">
-        <f t="shared" ref="F39" si="30">SUM(F34:F38)</f>
+        <f t="shared" ref="F39" si="32">SUM(F34:F38)</f>
         <v>0</v>
       </c>
       <c r="G39" s="12">
@@ -3568,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="12">
-        <f t="shared" ref="H39" si="31">SUM(H34:H38)</f>
+        <f t="shared" ref="H39" si="33">SUM(H34:H38)</f>
         <v>0</v>
       </c>
       <c r="I39" s="12">
@@ -3576,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="12">
-        <f t="shared" ref="J39" si="32">SUM(J34:J38)</f>
+        <f t="shared" ref="J39" si="34">SUM(J34:J38)</f>
         <v>0</v>
       </c>
       <c r="K39" s="12">
@@ -3584,19 +3762,19 @@
         <v>0</v>
       </c>
       <c r="L39" s="12">
-        <f t="shared" ref="L39:O39" si="33">SUM(L34:L38)</f>
+        <f t="shared" ref="L39:O39" si="35">SUM(L34:L38)</f>
         <v>0</v>
       </c>
       <c r="M39" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N39" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="O39" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>3668</v>
       </c>
       <c r="P39" s="12">
@@ -3604,15 +3782,15 @@
         <v>3265</v>
       </c>
       <c r="Q39" s="12">
-        <f t="shared" ref="Q39:S39" si="34">SUM(Q34:Q38)</f>
+        <f t="shared" ref="Q39:S39" si="36">SUM(Q34:Q38)</f>
         <v>2835</v>
       </c>
       <c r="R39" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4788</v>
       </c>
       <c r="S39" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10555</v>
       </c>
       <c r="T39" s="12">
@@ -3620,35 +3798,35 @@
         <v>5887</v>
       </c>
       <c r="U39" s="12">
-        <f t="shared" ref="U39:AB39" si="35">SUM(U34:U38)</f>
+        <f t="shared" ref="U39:AB39" si="37">SUM(U34:U38)</f>
         <v>10209</v>
       </c>
       <c r="V39" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="W39" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="X39" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Y39" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Z39" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AA39" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AB39" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AG39" s="12">
@@ -3656,43 +3834,43 @@
         <v>0</v>
       </c>
       <c r="AH39" s="12">
-        <f t="shared" ref="AH39:AQ39" si="36">SUM(AH34:AH38)</f>
+        <f t="shared" ref="AH39:AQ39" si="38">SUM(AH34:AH38)</f>
         <v>-17124</v>
       </c>
       <c r="AI39" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-38588</v>
       </c>
       <c r="AJ39" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-6963</v>
       </c>
       <c r="AK39" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>14556</v>
       </c>
       <c r="AL39" s="12">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>30054</v>
       </c>
       <c r="AM39" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AN39" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AO39" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AP39" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AQ39" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
@@ -3701,143 +3879,143 @@
         <v>99</v>
       </c>
       <c r="E40" s="7">
-        <f t="shared" ref="E40:T40" si="37">E31+E39</f>
+        <f t="shared" ref="E40:T40" si="39">E31+E39</f>
         <v>0</v>
       </c>
       <c r="F40" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="G40" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="H40" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="I40" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J40" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="K40" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="L40" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="M40" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N40" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="O40" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-44046</v>
       </c>
       <c r="P40" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-39375</v>
       </c>
       <c r="Q40" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-39797</v>
       </c>
       <c r="R40" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-37901</v>
       </c>
       <c r="S40" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-34137</v>
       </c>
       <c r="T40" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-37393</v>
       </c>
       <c r="U40" s="7">
-        <f t="shared" ref="U40:AB40" si="38">U31+U39</f>
+        <f t="shared" ref="U40:AB40" si="40">U31+U39</f>
         <v>-37649</v>
       </c>
       <c r="V40" s="7">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="W40" s="7">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="X40" s="7">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Y40" s="7">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Z40" s="7">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AA40" s="7">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AB40" s="7">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AG40" s="7">
-        <f t="shared" ref="AG40:AQ40" si="39">AG31+AG39</f>
+        <f t="shared" ref="AG40:AQ40" si="41">AG31+AG39</f>
         <v>0</v>
       </c>
       <c r="AH40" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-123584</v>
       </c>
       <c r="AI40" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-126030</v>
       </c>
       <c r="AJ40" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-135014</v>
       </c>
       <c r="AK40" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-161119</v>
       </c>
       <c r="AL40" s="7">
-        <f t="shared" si="39"/>
-        <v>0</v>
+        <f t="shared" si="41"/>
+        <v>-139694</v>
       </c>
       <c r="AM40" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AN40" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AO40" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AP40" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AQ40" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -3879,6 +4057,9 @@
       <c r="AK41" s="8">
         <v>847</v>
       </c>
+      <c r="AL41" s="8">
+        <v>815</v>
+      </c>
     </row>
     <row r="42" spans="2:43" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B42" s="7" t="s">
@@ -3889,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="7">
-        <f t="shared" ref="F42" si="40">F40-F41</f>
+        <f t="shared" ref="F42" si="42">F40-F41</f>
         <v>0</v>
       </c>
       <c r="G42" s="7">
@@ -3897,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="7">
-        <f t="shared" ref="H42" si="41">H40-H41</f>
+        <f t="shared" ref="H42" si="43">H40-H41</f>
         <v>0</v>
       </c>
       <c r="I42" s="7">
@@ -3905,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="7">
-        <f t="shared" ref="J42" si="42">J40-J41</f>
+        <f t="shared" ref="J42" si="44">J40-J41</f>
         <v>0</v>
       </c>
       <c r="K42" s="7">
@@ -3913,19 +4094,19 @@
         <v>0</v>
       </c>
       <c r="L42" s="7">
-        <f t="shared" ref="L42:O42" si="43">L40-L41</f>
+        <f t="shared" ref="L42:O42" si="45">L40-L41</f>
         <v>0</v>
       </c>
       <c r="M42" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="N42" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="O42" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-44360</v>
       </c>
       <c r="P42" s="7">
@@ -3933,15 +4114,15 @@
         <v>-39529</v>
       </c>
       <c r="Q42" s="7">
-        <f t="shared" ref="Q42:S42" si="44">Q40-Q41</f>
+        <f t="shared" ref="Q42:S42" si="46">Q40-Q41</f>
         <v>-40236</v>
       </c>
       <c r="R42" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>-37841</v>
       </c>
       <c r="S42" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>-34444</v>
       </c>
       <c r="T42" s="7">
@@ -3949,35 +4130,35 @@
         <v>-37975</v>
       </c>
       <c r="U42" s="7">
-        <f t="shared" ref="U42:AB42" si="45">U40-U41</f>
+        <f t="shared" ref="U42:AB42" si="47">U40-U41</f>
         <v>-38004</v>
       </c>
       <c r="V42" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="W42" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="X42" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y42" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Z42" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AA42" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AB42" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AG42" s="7">
@@ -3985,141 +4166,188 @@
         <v>0</v>
       </c>
       <c r="AH42" s="7">
-        <f t="shared" ref="AH42:AQ42" si="46">AH40-AH41</f>
+        <f t="shared" ref="AH42:AQ42" si="48">AH40-AH41</f>
         <v>-123714</v>
       </c>
       <c r="AI42" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-127103</v>
       </c>
       <c r="AJ42" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-137124</v>
       </c>
       <c r="AK42" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-161966</v>
       </c>
       <c r="AL42" s="7">
-        <f t="shared" si="46"/>
-        <v>0</v>
+        <f t="shared" si="48"/>
+        <v>-140509</v>
       </c>
       <c r="AM42" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AN42" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AO42" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AP42" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AQ42" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:43" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="15" t="s">
+        <v>154</v>
+      </c>
       <c r="E43" s="15" t="e">
         <f>E42/E22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F43" s="15" t="e">
-        <f t="shared" ref="F43:AB43" si="47">F42/F22</f>
+        <f t="shared" ref="F43:AB43" si="49">F42/F22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G43" s="15" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H43" s="15" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I43" s="15" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J43" s="15" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K43" s="15" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L43" s="15" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M43" s="15" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N43" s="15" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O43" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>-1.1054900690308271</v>
       </c>
       <c r="P43" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>-0.81587203302373579</v>
       </c>
       <c r="Q43" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>-0.80951231289232251</v>
       </c>
       <c r="R43" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>-0.71431807456347329</v>
       </c>
       <c r="S43" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>-0.65354913382539892</v>
       </c>
       <c r="T43" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>-0.70636706906493552</v>
       </c>
       <c r="U43" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>-0.68624052004333691</v>
       </c>
       <c r="V43" s="15" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W43" s="15" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X43" s="15" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y43" s="15" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z43" s="15" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA43" s="15" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB43" s="15" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG43" s="15" t="e">
+        <f>AG42/AG22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH43" s="15">
+        <f t="shared" ref="AH43:AQ43" si="50">AH42/AH22</f>
+        <v>-1.2922411631987967</v>
+      </c>
+      <c r="AI43" s="15">
+        <f t="shared" si="50"/>
+        <v>-1.1231355153400255</v>
+      </c>
+      <c r="AJ43" s="15">
+        <f t="shared" si="50"/>
+        <v>-1.045080749033984</v>
+      </c>
+      <c r="AK43" s="15">
+        <f t="shared" si="50"/>
+        <v>-0.8468544777680177</v>
+      </c>
+      <c r="AL43" s="15">
+        <f t="shared" si="50"/>
+        <v>-0.63666310218581212</v>
+      </c>
+      <c r="AM43" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN43" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO43" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP43" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ43" s="15" t="e">
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4133,7 +4361,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F45" s="11" t="e">
-        <f t="shared" ref="F45" si="48">F42/F46</f>
+        <f t="shared" ref="F45" si="51">F42/F46</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G45" s="11" t="e">
@@ -4141,7 +4369,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H45" s="11" t="e">
-        <f t="shared" ref="H45" si="49">H42/H46</f>
+        <f t="shared" ref="H45" si="52">H42/H46</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I45" s="11" t="e">
@@ -4149,7 +4377,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J45" s="11" t="e">
-        <f t="shared" ref="J45" si="50">J42/J46</f>
+        <f t="shared" ref="J45" si="53">J42/J46</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K45" s="11" t="e">
@@ -4157,19 +4385,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L45" s="11" t="e">
-        <f t="shared" ref="L45:O45" si="51">L42/L46</f>
+        <f t="shared" ref="L45:O45" si="54">L42/L46</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M45" s="11" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N45" s="11" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O45" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>-0.16797367744934866</v>
       </c>
       <c r="P45" s="11">
@@ -4177,15 +4405,15 @@
         <v>-0.14848664744650653</v>
       </c>
       <c r="Q45" s="11">
-        <f t="shared" ref="Q45:S45" si="52">Q42/Q46</f>
+        <f t="shared" ref="Q45:S45" si="55">Q42/Q46</f>
         <v>-0.1501485246771149</v>
       </c>
       <c r="R45" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>-0.14165925427253273</v>
       </c>
       <c r="S45" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>-0.12647055571850271</v>
       </c>
       <c r="T45" s="11">
@@ -4193,35 +4421,35 @@
         <v>-0.1380642009477745</v>
       </c>
       <c r="U45" s="11">
-        <f t="shared" ref="U45:AB45" si="53">U42/U46</f>
+        <f t="shared" ref="U45:AB45" si="56">U42/U46</f>
         <v>-0.13372379715639743</v>
       </c>
       <c r="V45" s="11" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W45" s="11" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X45" s="11" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y45" s="11" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z45" s="11" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA45" s="11" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB45" s="11" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG45" s="11" t="e">
@@ -4229,43 +4457,43 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AH45" s="11">
-        <f t="shared" ref="AH45:AQ45" si="54">AH42/AH46</f>
+        <f t="shared" ref="AH45:AQ45" si="57">AH42/AH46</f>
         <v>-2.8862223140068219</v>
       </c>
       <c r="AI45" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>-2.8746952408700275</v>
       </c>
       <c r="AJ45" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>-1.7224259420529608</v>
       </c>
       <c r="AK45" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>-0.60632601615985404</v>
       </c>
-      <c r="AL45" s="11" t="e">
-        <f t="shared" si="54"/>
-        <v>#DIV/0!</v>
+      <c r="AL45" s="11">
+        <f t="shared" si="57"/>
+        <v>-0.50256147222523528</v>
       </c>
       <c r="AM45" s="11" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN45" s="11" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO45" s="11" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP45" s="11" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ45" s="11" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4307,6 +4535,9 @@
       <c r="AK46" s="7">
         <v>267126.91800000001</v>
       </c>
+      <c r="AL46" s="7">
+        <v>279585.69799999997</v>
+      </c>
     </row>
     <row r="49" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
@@ -4344,7 +4575,7 @@
       </c>
       <c r="R51" s="7">
         <f>AK51</f>
-        <v>181892</v>
+        <v>182419</v>
       </c>
       <c r="S51" s="7">
         <v>140763</v>
@@ -4362,7 +4593,12 @@
         <v>490762</v>
       </c>
       <c r="AK51" s="7">
-        <v>181892</v>
+        <f>181892+527</f>
+        <v>182419</v>
+      </c>
+      <c r="AL51" s="7">
+        <f>83866+8360</f>
+        <v>92226</v>
       </c>
     </row>
     <row r="52" spans="1:43" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -4409,6 +4645,9 @@
       <c r="AK52" s="7">
         <v>226868</v>
       </c>
+      <c r="AL52" s="7">
+        <v>215041</v>
+      </c>
     </row>
     <row r="53" spans="1:43" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B53" s="7" t="s">
@@ -4453,6 +4692,9 @@
       <c r="AK53" s="7">
         <v>38952</v>
       </c>
+      <c r="AL53" s="7">
+        <v>43320</v>
+      </c>
     </row>
     <row r="54" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B54" s="8" t="s">
@@ -4497,6 +4739,9 @@
       <c r="AK54" s="8">
         <v>27943</v>
       </c>
+      <c r="AL54" s="8">
+        <v>19564</v>
+      </c>
     </row>
     <row r="55" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B55" s="6" t="s">
@@ -4507,7 +4752,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="6">
-        <f t="shared" ref="F55" si="55">SUM(F51:F54)</f>
+        <f t="shared" ref="F55" si="58">SUM(F51:F54)</f>
         <v>0</v>
       </c>
       <c r="G55" s="6">
@@ -4515,7 +4760,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="6">
-        <f t="shared" ref="H55" si="56">SUM(H51:H54)</f>
+        <f t="shared" ref="H55" si="59">SUM(H51:H54)</f>
         <v>0</v>
       </c>
       <c r="I55" s="6">
@@ -4523,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="J55" s="6">
-        <f t="shared" ref="J55" si="57">SUM(J51:J54)</f>
+        <f t="shared" ref="J55" si="60">SUM(J51:J54)</f>
         <v>125427</v>
       </c>
       <c r="K55" s="6">
@@ -4531,19 +4776,19 @@
         <v>0</v>
       </c>
       <c r="L55" s="6">
-        <f t="shared" ref="L55:O55" si="58">SUM(L51:L54)</f>
+        <f t="shared" ref="L55:O55" si="61">SUM(L51:L54)</f>
         <v>0</v>
       </c>
       <c r="M55" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="N55" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>551520</v>
       </c>
       <c r="O55" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>527262</v>
       </c>
       <c r="P55" s="6">
@@ -4551,15 +4796,15 @@
         <v>504105</v>
       </c>
       <c r="Q55" s="6">
-        <f t="shared" ref="Q55:S55" si="59">SUM(Q51:Q54)</f>
+        <f t="shared" ref="Q55:S55" si="62">SUM(Q51:Q54)</f>
         <v>480643</v>
       </c>
       <c r="R55" s="6">
-        <f t="shared" si="59"/>
-        <v>475655</v>
+        <f t="shared" si="62"/>
+        <v>476182</v>
       </c>
       <c r="S55" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>434525</v>
       </c>
       <c r="T55" s="6">
@@ -4567,35 +4812,35 @@
         <v>427861</v>
       </c>
       <c r="U55" s="6">
-        <f t="shared" ref="U55:AB55" si="60">SUM(U51:U54)</f>
+        <f t="shared" ref="U55:AB55" si="63">SUM(U51:U54)</f>
         <v>387535</v>
       </c>
       <c r="V55" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="W55" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="X55" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="Y55" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="Z55" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="AA55" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="AB55" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="AG55" s="6">
@@ -4603,43 +4848,43 @@
         <v>0</v>
       </c>
       <c r="AH55" s="6">
-        <f t="shared" ref="AH55:AQ55" si="61">SUM(AH51:AH54)</f>
+        <f t="shared" ref="AH55:AQ55" si="64">SUM(AH51:AH54)</f>
         <v>0</v>
       </c>
       <c r="AI55" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>125427</v>
       </c>
       <c r="AJ55" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>551520</v>
       </c>
       <c r="AK55" s="6">
-        <f t="shared" si="61"/>
-        <v>475655</v>
+        <f t="shared" si="64"/>
+        <v>476182</v>
       </c>
       <c r="AL55" s="6">
-        <f t="shared" si="61"/>
-        <v>0</v>
+        <f t="shared" si="64"/>
+        <v>370151</v>
       </c>
       <c r="AM55" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="AN55" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="AO55" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="AP55" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="AQ55" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
     </row>
@@ -4653,11 +4898,11 @@
         <v>48</v>
       </c>
       <c r="J57" s="7">
-        <f t="shared" ref="J57:J63" si="62">AI57</f>
+        <f t="shared" ref="J57:J63" si="65">AI57</f>
         <v>159855</v>
       </c>
       <c r="N57" s="7">
-        <f t="shared" ref="N57:N63" si="63">AJ57</f>
+        <f t="shared" ref="N57:N63" si="66">AJ57</f>
         <v>133280</v>
       </c>
       <c r="O57" s="7">
@@ -4670,7 +4915,7 @@
         <v>115385</v>
       </c>
       <c r="R57" s="7">
-        <f t="shared" ref="R57:R63" si="64">AK57</f>
+        <f t="shared" ref="R57:R63" si="67">AK57</f>
         <v>108091</v>
       </c>
       <c r="S57" s="7">
@@ -4690,6 +4935,9 @@
       </c>
       <c r="AK57" s="7">
         <v>108091</v>
+      </c>
+      <c r="AL57" s="7">
+        <v>113429</v>
       </c>
     </row>
     <row r="58" spans="1:43" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -4697,11 +4945,11 @@
         <v>49</v>
       </c>
       <c r="J58" s="7">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>11994</v>
       </c>
       <c r="N58" s="7">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>10768</v>
       </c>
       <c r="O58" s="7">
@@ -4714,7 +4962,7 @@
         <v>11181</v>
       </c>
       <c r="R58" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>11417</v>
       </c>
       <c r="S58" s="7">
@@ -4734,6 +4982,9 @@
       </c>
       <c r="AK58" s="7">
         <v>11417</v>
+      </c>
+      <c r="AL58" s="7">
+        <v>14973</v>
       </c>
     </row>
     <row r="59" spans="1:43" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -4741,11 +4992,11 @@
         <v>50</v>
       </c>
       <c r="J59" s="7">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>88393</v>
       </c>
       <c r="N59" s="7">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>103219</v>
       </c>
       <c r="O59" s="7">
@@ -4758,7 +5009,7 @@
         <v>103219</v>
       </c>
       <c r="R59" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>112748</v>
       </c>
       <c r="S59" s="7">
@@ -4778,6 +5029,9 @@
       </c>
       <c r="AK59" s="7">
         <v>112748</v>
+      </c>
+      <c r="AL59" s="7">
+        <v>136256</v>
       </c>
     </row>
     <row r="60" spans="1:43" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -4785,11 +5039,11 @@
         <v>51</v>
       </c>
       <c r="J60" s="7">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>5673</v>
       </c>
       <c r="N60" s="7">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>14197</v>
       </c>
       <c r="O60" s="7">
@@ -4802,7 +5056,7 @@
         <v>12419</v>
       </c>
       <c r="R60" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>14831</v>
       </c>
       <c r="S60" s="7">
@@ -4822,6 +5076,9 @@
       </c>
       <c r="AK60" s="7">
         <v>14831</v>
+      </c>
+      <c r="AL60" s="7">
+        <v>32448</v>
       </c>
     </row>
     <row r="61" spans="1:43" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -4829,11 +5086,11 @@
         <v>52</v>
       </c>
       <c r="J61" s="7">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>4982</v>
       </c>
       <c r="N61" s="7">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>5743</v>
       </c>
       <c r="O61" s="7">
@@ -4846,7 +5103,7 @@
         <v>5163</v>
       </c>
       <c r="R61" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>5657</v>
       </c>
       <c r="S61" s="7">
@@ -4866,6 +5123,9 @@
       </c>
       <c r="AK61" s="7">
         <v>5657</v>
+      </c>
+      <c r="AL61" s="7">
+        <v>9972</v>
       </c>
     </row>
     <row r="62" spans="1:43" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -4873,11 +5133,11 @@
         <v>53</v>
       </c>
       <c r="J62" s="7">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="N62" s="7">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="O62" s="7">
@@ -4890,7 +5150,7 @@
         <v>15806</v>
       </c>
       <c r="R62" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>20403</v>
       </c>
       <c r="S62" s="7">
@@ -4910,6 +5170,9 @@
       </c>
       <c r="AK62" s="7">
         <v>20403</v>
+      </c>
+      <c r="AL62" s="7">
+        <v>22339</v>
       </c>
     </row>
     <row r="63" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.35">
@@ -4917,11 +5180,11 @@
         <v>54</v>
       </c>
       <c r="J63" s="7">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>2984</v>
       </c>
       <c r="N63" s="7">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>2714</v>
       </c>
       <c r="O63" s="8">
@@ -4934,7 +5197,7 @@
         <v>3412</v>
       </c>
       <c r="R63" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>3921</v>
       </c>
       <c r="S63" s="8">
@@ -4954,6 +5217,9 @@
       </c>
       <c r="AK63" s="8">
         <v>3921</v>
+      </c>
+      <c r="AL63" s="8">
+        <v>2429</v>
       </c>
     </row>
     <row r="64" spans="1:43" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -4965,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="10">
-        <f t="shared" ref="F64" si="65">SUM(F57:F63)</f>
+        <f t="shared" ref="F64" si="68">SUM(F57:F63)</f>
         <v>0</v>
       </c>
       <c r="G64" s="10">
@@ -4973,7 +5239,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="10">
-        <f t="shared" ref="H64" si="66">SUM(H57:H63)</f>
+        <f t="shared" ref="H64" si="69">SUM(H57:H63)</f>
         <v>0</v>
       </c>
       <c r="I64" s="10">
@@ -4981,7 +5247,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="10">
-        <f t="shared" ref="J64" si="67">SUM(J57:J63)</f>
+        <f t="shared" ref="J64" si="70">SUM(J57:J63)</f>
         <v>273881</v>
       </c>
       <c r="K64" s="10">
@@ -4989,19 +5255,19 @@
         <v>0</v>
       </c>
       <c r="L64" s="10">
-        <f t="shared" ref="L64:O64" si="68">SUM(L57:L63)</f>
+        <f t="shared" ref="L64:O64" si="71">SUM(L57:L63)</f>
         <v>0</v>
       </c>
       <c r="M64" s="10">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="N64" s="10">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>269921</v>
       </c>
       <c r="O64" s="10">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>268732</v>
       </c>
       <c r="P64" s="10">
@@ -5009,15 +5275,15 @@
         <v>263789</v>
       </c>
       <c r="Q64" s="10">
-        <f t="shared" ref="Q64:S64" si="69">SUM(Q57:Q63)</f>
+        <f t="shared" ref="Q64:S64" si="72">SUM(Q57:Q63)</f>
         <v>266585</v>
       </c>
       <c r="R64" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>277068</v>
       </c>
       <c r="S64" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>288932</v>
       </c>
       <c r="T64" s="10">
@@ -5025,35 +5291,35 @@
         <v>292556</v>
       </c>
       <c r="U64" s="10">
-        <f t="shared" ref="U64:AB64" si="70">SUM(U57:U63)</f>
+        <f t="shared" ref="U64:AB64" si="73">SUM(U57:U63)</f>
         <v>325985</v>
       </c>
       <c r="V64" s="10">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="W64" s="10">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="X64" s="10">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="Y64" s="10">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="Z64" s="10">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="AA64" s="10">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="AB64" s="10">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="AG64" s="10">
@@ -5061,43 +5327,43 @@
         <v>0</v>
       </c>
       <c r="AH64" s="10">
-        <f t="shared" ref="AH64:AQ64" si="71">SUM(AH57:AH63)</f>
+        <f t="shared" ref="AH64:AQ64" si="74">SUM(AH57:AH63)</f>
         <v>0</v>
       </c>
       <c r="AI64" s="10">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>273881</v>
       </c>
       <c r="AJ64" s="10">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>269921</v>
       </c>
       <c r="AK64" s="10">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>277068</v>
       </c>
       <c r="AL64" s="10">
-        <f t="shared" si="71"/>
-        <v>0</v>
+        <f t="shared" si="74"/>
+        <v>331846</v>
       </c>
       <c r="AM64" s="10">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="AN64" s="10">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="AO64" s="10">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="AP64" s="10">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="AQ64" s="10">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
     </row>
@@ -5110,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="6">
-        <f t="shared" ref="F65" si="72">F64+F55</f>
+        <f t="shared" ref="F65" si="75">F64+F55</f>
         <v>0</v>
       </c>
       <c r="G65" s="6">
@@ -5118,7 +5384,7 @@
         <v>0</v>
       </c>
       <c r="H65" s="6">
-        <f t="shared" ref="H65" si="73">H64+H55</f>
+        <f t="shared" ref="H65" si="76">H64+H55</f>
         <v>0</v>
       </c>
       <c r="I65" s="6">
@@ -5126,7 +5392,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="6">
-        <f t="shared" ref="J65" si="74">J64+J55</f>
+        <f t="shared" ref="J65" si="77">J64+J55</f>
         <v>399308</v>
       </c>
       <c r="K65" s="6">
@@ -5134,19 +5400,19 @@
         <v>0</v>
       </c>
       <c r="L65" s="6">
-        <f t="shared" ref="L65:O65" si="75">L64+L55</f>
+        <f t="shared" ref="L65:O65" si="78">L64+L55</f>
         <v>0</v>
       </c>
       <c r="M65" s="6">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="N65" s="6">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>821441</v>
       </c>
       <c r="O65" s="6">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>795994</v>
       </c>
       <c r="P65" s="6">
@@ -5154,15 +5420,15 @@
         <v>767894</v>
       </c>
       <c r="Q65" s="6">
-        <f t="shared" ref="Q65:S65" si="76">Q64+Q55</f>
+        <f t="shared" ref="Q65:S65" si="79">Q64+Q55</f>
         <v>747228</v>
       </c>
       <c r="R65" s="6">
-        <f t="shared" si="76"/>
-        <v>752723</v>
+        <f t="shared" si="79"/>
+        <v>753250</v>
       </c>
       <c r="S65" s="6">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>723457</v>
       </c>
       <c r="T65" s="6">
@@ -5170,35 +5436,35 @@
         <v>720417</v>
       </c>
       <c r="U65" s="6">
-        <f t="shared" ref="U65:AB65" si="77">U64+U55</f>
+        <f t="shared" ref="U65:AB65" si="80">U64+U55</f>
         <v>713520</v>
       </c>
       <c r="V65" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="W65" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="X65" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="Y65" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="Z65" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="AA65" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="AB65" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="AG65" s="6">
@@ -5206,43 +5472,43 @@
         <v>0</v>
       </c>
       <c r="AH65" s="6">
-        <f t="shared" ref="AH65:AQ65" si="78">AH64+AH55</f>
+        <f t="shared" ref="AH65:AQ65" si="81">AH64+AH55</f>
         <v>0</v>
       </c>
       <c r="AI65" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>399308</v>
       </c>
       <c r="AJ65" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>821441</v>
       </c>
       <c r="AK65" s="6">
-        <f t="shared" si="78"/>
-        <v>752723</v>
+        <f t="shared" si="81"/>
+        <v>753250</v>
       </c>
       <c r="AL65" s="6">
-        <f t="shared" si="78"/>
-        <v>0</v>
+        <f t="shared" si="81"/>
+        <v>701997</v>
       </c>
       <c r="AM65" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="AN65" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="AO65" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="AP65" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="AQ65" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
     </row>
@@ -5256,11 +5522,11 @@
         <v>57</v>
       </c>
       <c r="J67" s="7">
-        <f t="shared" ref="J67:J73" si="79">AI67</f>
+        <f t="shared" ref="J67:J73" si="82">AI67</f>
         <v>1446</v>
       </c>
       <c r="N67" s="7">
-        <f t="shared" ref="N67:N73" si="80">AJ67</f>
+        <f t="shared" ref="N67:N73" si="83">AJ67</f>
         <v>2850</v>
       </c>
       <c r="O67" s="7">
@@ -5273,7 +5539,7 @@
         <v>2557</v>
       </c>
       <c r="R67" s="7">
-        <f t="shared" ref="R67:R73" si="81">AK67</f>
+        <f t="shared" ref="R67:R73" si="84">AK67</f>
         <v>6900</v>
       </c>
       <c r="S67" s="7">
@@ -5293,6 +5559,9 @@
       </c>
       <c r="AK67" s="7">
         <v>6900</v>
+      </c>
+      <c r="AL67" s="7">
+        <v>2601</v>
       </c>
     </row>
     <row r="68" spans="2:43" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -5300,11 +5569,11 @@
         <v>58</v>
       </c>
       <c r="J68" s="7">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>30195</v>
       </c>
       <c r="N68" s="7">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>48823</v>
       </c>
       <c r="O68" s="7">
@@ -5317,7 +5586,7 @@
         <v>42629</v>
       </c>
       <c r="R68" s="7">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>46022</v>
       </c>
       <c r="S68" s="7">
@@ -5337,6 +5606,9 @@
       </c>
       <c r="AK68" s="7">
         <v>46022</v>
+      </c>
+      <c r="AL68" s="7">
+        <v>44779</v>
       </c>
     </row>
     <row r="69" spans="2:43" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -5344,11 +5616,11 @@
         <v>59</v>
       </c>
       <c r="J69" s="7">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>57570</v>
       </c>
       <c r="N69" s="7">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>64233</v>
       </c>
       <c r="O69" s="7">
@@ -5361,7 +5633,7 @@
         <v>47698</v>
       </c>
       <c r="R69" s="7">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>51900</v>
       </c>
       <c r="S69" s="7">
@@ -5381,6 +5653,9 @@
       </c>
       <c r="AK69" s="7">
         <v>51900</v>
+      </c>
+      <c r="AL69" s="7">
+        <v>72327</v>
       </c>
     </row>
     <row r="70" spans="2:43" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -5388,11 +5663,11 @@
         <v>60</v>
       </c>
       <c r="J70" s="7">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="N70" s="7">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>16135</v>
       </c>
       <c r="O70" s="7">
@@ -5405,7 +5680,7 @@
         <v>13446</v>
       </c>
       <c r="R70" s="7">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>12550</v>
       </c>
       <c r="S70" s="7">
@@ -5425,6 +5700,9 @@
       </c>
       <c r="AK70" s="7">
         <v>12550</v>
+      </c>
+      <c r="AL70" s="7">
+        <v>8964</v>
       </c>
     </row>
     <row r="71" spans="2:43" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -5432,11 +5710,11 @@
         <v>61</v>
       </c>
       <c r="J71" s="7">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="N71" s="7">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="O71" s="7">
@@ -5449,7 +5727,7 @@
         <v>3538</v>
       </c>
       <c r="R71" s="7">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>4885</v>
       </c>
       <c r="S71" s="7">
@@ -5469,6 +5747,9 @@
       </c>
       <c r="AK71" s="7">
         <v>4885</v>
+      </c>
+      <c r="AL71" s="7">
+        <v>7978</v>
       </c>
     </row>
     <row r="72" spans="2:43" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -5476,11 +5757,11 @@
         <v>118</v>
       </c>
       <c r="J72" s="7">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>8244</v>
       </c>
       <c r="N72" s="7">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="O72" s="7">
@@ -5493,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="R72" s="7">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="S72" s="7">
@@ -5512,6 +5793,9 @@
         <v>0</v>
       </c>
       <c r="AK72" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL72" s="7">
         <v>0</v>
       </c>
     </row>
@@ -5520,11 +5804,11 @@
         <v>119</v>
       </c>
       <c r="J73" s="8">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>11359</v>
       </c>
       <c r="N73" s="8">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="O73" s="8">
@@ -5537,7 +5821,7 @@
         <v>0</v>
       </c>
       <c r="R73" s="8">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="S73" s="8">
@@ -5556,6 +5840,9 @@
         <v>0</v>
       </c>
       <c r="AK73" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL73" s="8">
         <v>0</v>
       </c>
     </row>
@@ -5564,35 +5851,35 @@
         <v>62</v>
       </c>
       <c r="E74" s="6">
-        <f>SUM(E67:E71)</f>
+        <f>SUM(E67:E73)</f>
         <v>0</v>
       </c>
       <c r="F74" s="6">
-        <f t="shared" ref="F74" si="82">SUM(F67:F71)</f>
+        <f t="shared" ref="F74:AB74" si="85">SUM(F67:F73)</f>
         <v>0</v>
       </c>
       <c r="G74" s="6">
-        <f>SUM(G67:G71)</f>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="H74" s="6">
-        <f t="shared" ref="H74" si="83">SUM(H67:H71)</f>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="I74" s="6">
-        <f>SUM(I67:I71)</f>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="J74" s="6">
-        <f t="shared" ref="J74" si="84">SUM(J67:J71)</f>
-        <v>89211</v>
+        <f t="shared" si="85"/>
+        <v>108814</v>
       </c>
       <c r="K74" s="6">
-        <f>SUM(K67:K71)</f>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="L74" s="6">
-        <f t="shared" ref="L74:N74" si="85">SUM(L67:L71)</f>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="M74" s="6">
@@ -5604,59 +5891,59 @@
         <v>132041</v>
       </c>
       <c r="O74" s="6">
-        <f>SUM(O67:O73)</f>
+        <f t="shared" si="85"/>
         <v>129451</v>
       </c>
       <c r="P74" s="6">
-        <f>SUM(P67:P73)</f>
+        <f t="shared" si="85"/>
         <v>122280</v>
       </c>
       <c r="Q74" s="6">
-        <f>SUM(Q67:Q73)</f>
+        <f t="shared" si="85"/>
         <v>109868</v>
       </c>
       <c r="R74" s="6">
-        <f t="shared" ref="R74" si="86">SUM(R67:R71)</f>
+        <f t="shared" si="85"/>
         <v>122257</v>
       </c>
       <c r="S74" s="6">
-        <f>SUM(S67:S73)</f>
+        <f t="shared" si="85"/>
         <v>111682</v>
       </c>
       <c r="T74" s="6">
-        <f>SUM(T67:T73)</f>
+        <f t="shared" si="85"/>
         <v>116259</v>
       </c>
       <c r="U74" s="6">
-        <f t="shared" ref="U74:AB74" si="87">SUM(U67:U73)</f>
+        <f t="shared" si="85"/>
         <v>131138</v>
       </c>
       <c r="V74" s="6">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="W74" s="6">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="X74" s="6">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="Y74" s="6">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="Z74" s="6">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="AA74" s="6">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="AB74" s="6">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="AG74" s="6">
@@ -5664,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="AH74" s="6">
-        <f t="shared" ref="AH74:AQ74" si="88">SUM(AH67:AH71)</f>
+        <f t="shared" ref="AH74:AQ74" si="86">SUM(AH67:AH71)</f>
         <v>0</v>
       </c>
       <c r="AI74" s="6">
@@ -5680,27 +5967,27 @@
         <v>122257</v>
       </c>
       <c r="AL74" s="6">
-        <f t="shared" si="88"/>
-        <v>0</v>
+        <f>SUM(AL67:AL73)</f>
+        <v>136649</v>
       </c>
       <c r="AM74" s="6">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="AN74" s="6">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="AO74" s="6">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="AP74" s="6">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="AQ74" s="6">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
     </row>
@@ -5714,11 +6001,11 @@
         <v>4</v>
       </c>
       <c r="J76" s="7">
-        <f t="shared" ref="J76:J84" si="89">AI76</f>
+        <f t="shared" ref="J76:J84" si="87">AI76</f>
         <v>62644</v>
       </c>
       <c r="N76" s="7">
-        <f t="shared" ref="N76:N84" si="90">AJ76</f>
+        <f t="shared" ref="N76:N84" si="88">AJ76</f>
         <v>0</v>
       </c>
       <c r="O76" s="7">
@@ -5731,7 +6018,7 @@
         <v>0</v>
       </c>
       <c r="R76" s="7">
-        <f t="shared" ref="R76:R84" si="91">AK76</f>
+        <f t="shared" ref="R76:R84" si="89">AK76</f>
         <v>0</v>
       </c>
       <c r="S76" s="7">
@@ -5750,6 +6037,9 @@
         <v>0</v>
       </c>
       <c r="AK76" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL76" s="7">
         <v>0</v>
       </c>
     </row>
@@ -5758,24 +6048,24 @@
         <v>118</v>
       </c>
       <c r="J77" s="7">
+        <f t="shared" si="87"/>
+        <v>92968</v>
+      </c>
+      <c r="N77" s="7">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="O77" s="7">
+        <v>0</v>
+      </c>
+      <c r="P77" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="7">
+        <v>0</v>
+      </c>
+      <c r="R77" s="7">
         <f t="shared" si="89"/>
-        <v>92968</v>
-      </c>
-      <c r="N77" s="7">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="O77" s="7">
-        <v>0</v>
-      </c>
-      <c r="P77" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q77" s="7">
-        <v>0</v>
-      </c>
-      <c r="R77" s="7">
-        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="S77" s="7">
@@ -5794,6 +6084,9 @@
         <v>0</v>
       </c>
       <c r="AK77" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL77" s="7">
         <v>0</v>
       </c>
     </row>
@@ -5802,24 +6095,24 @@
         <v>59</v>
       </c>
       <c r="J78" s="7">
+        <f t="shared" si="87"/>
+        <v>15122</v>
+      </c>
+      <c r="N78" s="7">
+        <f t="shared" si="88"/>
+        <v>3579</v>
+      </c>
+      <c r="O78" s="7">
+        <v>0</v>
+      </c>
+      <c r="P78" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="7">
+        <v>0</v>
+      </c>
+      <c r="R78" s="7">
         <f t="shared" si="89"/>
-        <v>15122</v>
-      </c>
-      <c r="N78" s="7">
-        <f t="shared" si="90"/>
-        <v>3579</v>
-      </c>
-      <c r="O78" s="7">
-        <v>0</v>
-      </c>
-      <c r="P78" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="7">
-        <v>0</v>
-      </c>
-      <c r="R78" s="7">
-        <f t="shared" si="91"/>
         <v>2882</v>
       </c>
       <c r="S78" s="7">
@@ -5839,6 +6132,9 @@
       </c>
       <c r="AK78" s="7">
         <v>2882</v>
+      </c>
+      <c r="AL78" s="7">
+        <v>5293</v>
       </c>
     </row>
     <row r="79" spans="2:43" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -5846,11 +6142,11 @@
         <v>63</v>
       </c>
       <c r="J79" s="7">
-        <f t="shared" si="89"/>
+        <f t="shared" si="87"/>
         <v>7971</v>
       </c>
       <c r="N79" s="7">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>12149</v>
       </c>
       <c r="O79" s="7">
@@ -5863,7 +6159,7 @@
         <v>9853</v>
       </c>
       <c r="R79" s="7">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v>8679</v>
       </c>
       <c r="S79" s="7">
@@ -5883,6 +6179,9 @@
       </c>
       <c r="AK79" s="7">
         <v>8679</v>
+      </c>
+      <c r="AL79" s="7">
+        <v>7101</v>
       </c>
     </row>
     <row r="80" spans="2:43" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -5890,11 +6189,11 @@
         <v>64</v>
       </c>
       <c r="J80" s="7">
-        <f t="shared" si="89"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="N80" s="7">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>23224</v>
       </c>
       <c r="O80" s="7">
@@ -5907,7 +6206,7 @@
         <v>17855</v>
       </c>
       <c r="R80" s="7">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v>16670</v>
       </c>
       <c r="S80" s="7">
@@ -5927,6 +6226,9 @@
       </c>
       <c r="AK80" s="7">
         <v>16670</v>
+      </c>
+      <c r="AL80" s="7">
+        <v>2961</v>
       </c>
     </row>
     <row r="81" spans="1:43" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -5934,24 +6236,24 @@
         <v>65</v>
       </c>
       <c r="J81" s="7">
+        <f t="shared" si="87"/>
+        <v>2991</v>
+      </c>
+      <c r="N81" s="7">
+        <f t="shared" si="88"/>
+        <v>798</v>
+      </c>
+      <c r="O81" s="7">
+        <v>0</v>
+      </c>
+      <c r="P81" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="7">
+        <v>0</v>
+      </c>
+      <c r="R81" s="7">
         <f t="shared" si="89"/>
-        <v>2991</v>
-      </c>
-      <c r="N81" s="7">
-        <f t="shared" si="90"/>
-        <v>798</v>
-      </c>
-      <c r="O81" s="7">
-        <v>0</v>
-      </c>
-      <c r="P81" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="7">
-        <v>0</v>
-      </c>
-      <c r="R81" s="7">
-        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="S81" s="7">
@@ -5970,6 +6272,9 @@
         <v>798</v>
       </c>
       <c r="AK81" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL81" s="7">
         <v>0</v>
       </c>
     </row>
@@ -5978,11 +6283,11 @@
         <v>61</v>
       </c>
       <c r="J82" s="7">
-        <f t="shared" si="89"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="N82" s="7">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="O82" s="7">
@@ -5995,7 +6300,7 @@
         <v>14024</v>
       </c>
       <c r="R82" s="7">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v>17145</v>
       </c>
       <c r="S82" s="7">
@@ -6015,6 +6320,9 @@
       </c>
       <c r="AK82" s="7">
         <v>17145</v>
+      </c>
+      <c r="AL82" s="7">
+        <v>16952</v>
       </c>
     </row>
     <row r="83" spans="1:43" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -6022,24 +6330,24 @@
         <v>66</v>
       </c>
       <c r="J83" s="7">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="N83" s="7">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="O83" s="7">
+        <v>0</v>
+      </c>
+      <c r="P83" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="7">
+        <v>0</v>
+      </c>
+      <c r="R83" s="7">
         <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="N83" s="7">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="O83" s="7">
-        <v>0</v>
-      </c>
-      <c r="P83" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="7">
-        <v>0</v>
-      </c>
-      <c r="R83" s="7">
-        <f t="shared" si="91"/>
         <v>7499</v>
       </c>
       <c r="S83" s="7">
@@ -6059,6 +6367,9 @@
       </c>
       <c r="AK83" s="7">
         <v>7499</v>
+      </c>
+      <c r="AL83" s="7">
+        <v>5885</v>
       </c>
     </row>
     <row r="84" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.35">
@@ -6066,11 +6377,11 @@
         <v>67</v>
       </c>
       <c r="J84" s="7">
-        <f t="shared" si="89"/>
+        <f t="shared" si="87"/>
         <v>1287</v>
       </c>
       <c r="N84" s="7">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>1405</v>
       </c>
       <c r="O84" s="8">
@@ -6083,7 +6394,7 @@
         <v>1461</v>
       </c>
       <c r="R84" s="7">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v>1487</v>
       </c>
       <c r="S84" s="7">
@@ -6103,6 +6414,9 @@
       </c>
       <c r="AK84" s="8">
         <v>1487</v>
+      </c>
+      <c r="AL84" s="7">
+        <v>9138</v>
       </c>
     </row>
     <row r="85" spans="1:43" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6114,7 +6428,7 @@
         <v>0</v>
       </c>
       <c r="F85" s="10">
-        <f t="shared" ref="F85" si="92">SUM(F76:F84)</f>
+        <f t="shared" ref="F85" si="90">SUM(F76:F84)</f>
         <v>0</v>
       </c>
       <c r="G85" s="10">
@@ -6122,7 +6436,7 @@
         <v>0</v>
       </c>
       <c r="H85" s="10">
-        <f t="shared" ref="H85" si="93">SUM(H76:H84)</f>
+        <f t="shared" ref="H85" si="91">SUM(H76:H84)</f>
         <v>0</v>
       </c>
       <c r="I85" s="10">
@@ -6130,7 +6444,7 @@
         <v>0</v>
       </c>
       <c r="J85" s="10">
-        <f t="shared" ref="J85" si="94">SUM(J76:J84)</f>
+        <f t="shared" ref="J85" si="92">SUM(J76:J84)</f>
         <v>182983</v>
       </c>
       <c r="K85" s="10">
@@ -6138,19 +6452,19 @@
         <v>0</v>
       </c>
       <c r="L85" s="10">
-        <f t="shared" ref="L85:O85" si="95">SUM(L76:L84)</f>
+        <f t="shared" ref="L85:O85" si="93">SUM(L76:L84)</f>
         <v>0</v>
       </c>
       <c r="M85" s="10">
-        <f t="shared" si="95"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="N85" s="10">
-        <f t="shared" si="95"/>
+        <f t="shared" si="93"/>
         <v>41155</v>
       </c>
       <c r="O85" s="10">
-        <f t="shared" si="95"/>
+        <f t="shared" si="93"/>
         <v>35837</v>
       </c>
       <c r="P85" s="10">
@@ -6158,15 +6472,15 @@
         <v>31971</v>
       </c>
       <c r="Q85" s="10">
-        <f t="shared" ref="Q85:S85" si="96">SUM(Q76:Q84)</f>
+        <f t="shared" ref="Q85:S85" si="94">SUM(Q76:Q84)</f>
         <v>43193</v>
       </c>
       <c r="R85" s="10">
-        <f t="shared" si="96"/>
+        <f t="shared" si="94"/>
         <v>54362</v>
       </c>
       <c r="S85" s="10">
-        <f t="shared" si="96"/>
+        <f t="shared" si="94"/>
         <v>52426</v>
       </c>
       <c r="T85" s="10">
@@ -6174,35 +6488,35 @@
         <v>64590</v>
       </c>
       <c r="U85" s="10">
-        <f t="shared" ref="U85:AB85" si="97">SUM(U76:U84)</f>
+        <f t="shared" ref="U85:AB85" si="95">SUM(U76:U84)</f>
         <v>48784</v>
       </c>
       <c r="V85" s="10">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="W85" s="10">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="X85" s="10">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="Y85" s="10">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="Z85" s="10">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="AA85" s="10">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="AB85" s="10">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="AG85" s="10">
@@ -6210,43 +6524,43 @@
         <v>0</v>
       </c>
       <c r="AH85" s="10">
-        <f t="shared" ref="AH85:AQ85" si="98">SUM(AH76:AH84)</f>
+        <f t="shared" ref="AH85:AQ85" si="96">SUM(AH76:AH84)</f>
         <v>0</v>
       </c>
       <c r="AI85" s="10">
-        <f t="shared" si="98"/>
+        <f t="shared" si="96"/>
         <v>182983</v>
       </c>
       <c r="AJ85" s="10">
-        <f t="shared" si="98"/>
+        <f t="shared" si="96"/>
         <v>41155</v>
       </c>
       <c r="AK85" s="10">
-        <f t="shared" si="98"/>
+        <f t="shared" si="96"/>
         <v>54362</v>
       </c>
       <c r="AL85" s="10">
-        <f t="shared" si="98"/>
-        <v>0</v>
+        <f t="shared" si="96"/>
+        <v>47330</v>
       </c>
       <c r="AM85" s="10">
-        <f t="shared" si="98"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="AN85" s="10">
-        <f t="shared" si="98"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="AO85" s="10">
-        <f t="shared" si="98"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="AP85" s="10">
-        <f t="shared" si="98"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="AQ85" s="10">
-        <f t="shared" si="98"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
     </row>
@@ -6255,143 +6569,143 @@
         <v>69</v>
       </c>
       <c r="E86" s="6">
-        <f t="shared" ref="E86" si="99">E85+E74</f>
+        <f t="shared" ref="E86" si="97">E85+E74</f>
         <v>0</v>
       </c>
       <c r="F86" s="6">
-        <f t="shared" ref="F86" si="100">F85+F74</f>
+        <f t="shared" ref="F86" si="98">F85+F74</f>
         <v>0</v>
       </c>
       <c r="G86" s="6">
-        <f t="shared" ref="G86" si="101">G85+G74</f>
+        <f t="shared" ref="G86" si="99">G85+G74</f>
         <v>0</v>
       </c>
       <c r="H86" s="6">
-        <f t="shared" ref="H86" si="102">H85+H74</f>
+        <f t="shared" ref="H86" si="100">H85+H74</f>
         <v>0</v>
       </c>
       <c r="I86" s="6">
-        <f t="shared" ref="I86" si="103">I85+I74</f>
+        <f t="shared" ref="I86" si="101">I85+I74</f>
         <v>0</v>
       </c>
       <c r="J86" s="6">
-        <f t="shared" ref="J86" si="104">J85+J74</f>
-        <v>272194</v>
+        <f t="shared" ref="J86" si="102">J85+J74</f>
+        <v>291797</v>
       </c>
       <c r="K86" s="6">
-        <f t="shared" ref="K86" si="105">K85+K74</f>
+        <f t="shared" ref="K86" si="103">K85+K74</f>
         <v>0</v>
       </c>
       <c r="L86" s="6">
-        <f t="shared" ref="L86" si="106">L85+L74</f>
+        <f t="shared" ref="L86" si="104">L85+L74</f>
         <v>0</v>
       </c>
       <c r="M86" s="6">
-        <f t="shared" ref="M86" si="107">M85+M74</f>
+        <f t="shared" ref="M86" si="105">M85+M74</f>
         <v>0</v>
       </c>
       <c r="N86" s="6">
-        <f t="shared" ref="N86" si="108">N85+N74</f>
+        <f t="shared" ref="N86" si="106">N85+N74</f>
         <v>173196</v>
       </c>
       <c r="O86" s="6">
-        <f t="shared" ref="O86" si="109">O85+O74</f>
+        <f t="shared" ref="O86" si="107">O85+O74</f>
         <v>165288</v>
       </c>
       <c r="P86" s="6">
-        <f t="shared" ref="P86" si="110">P85+P74</f>
+        <f t="shared" ref="P86" si="108">P85+P74</f>
         <v>154251</v>
       </c>
       <c r="Q86" s="6">
-        <f t="shared" ref="Q86" si="111">Q85+Q74</f>
+        <f t="shared" ref="Q86" si="109">Q85+Q74</f>
         <v>153061</v>
       </c>
       <c r="R86" s="6">
-        <f t="shared" ref="R86" si="112">R85+R74</f>
+        <f t="shared" ref="R86" si="110">R85+R74</f>
         <v>176619</v>
       </c>
       <c r="S86" s="6">
-        <f t="shared" ref="S86" si="113">S85+S74</f>
+        <f t="shared" ref="S86" si="111">S85+S74</f>
         <v>164108</v>
       </c>
       <c r="T86" s="6">
-        <f t="shared" ref="T86:AB86" si="114">T85+T74</f>
+        <f t="shared" ref="T86:AB86" si="112">T85+T74</f>
         <v>180849</v>
       </c>
       <c r="U86" s="6">
-        <f t="shared" si="114"/>
+        <f t="shared" si="112"/>
         <v>179922</v>
       </c>
       <c r="V86" s="6">
-        <f t="shared" si="114"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="W86" s="6">
-        <f t="shared" si="114"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="X86" s="6">
-        <f t="shared" si="114"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="Y86" s="6">
-        <f t="shared" si="114"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="Z86" s="6">
-        <f t="shared" si="114"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="AA86" s="6">
-        <f t="shared" si="114"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="AB86" s="6">
-        <f t="shared" si="114"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="AG86" s="6">
-        <f t="shared" ref="AG86" si="115">AG85+AG74</f>
+        <f t="shared" ref="AG86" si="113">AG85+AG74</f>
         <v>0</v>
       </c>
       <c r="AH86" s="6">
-        <f t="shared" ref="AH86" si="116">AH85+AH74</f>
+        <f t="shared" ref="AH86" si="114">AH85+AH74</f>
         <v>0</v>
       </c>
       <c r="AI86" s="6">
-        <f t="shared" ref="AI86" si="117">AI85+AI74</f>
+        <f t="shared" ref="AI86" si="115">AI85+AI74</f>
         <v>291797</v>
       </c>
       <c r="AJ86" s="6">
-        <f t="shared" ref="AJ86" si="118">AJ85+AJ74</f>
+        <f t="shared" ref="AJ86" si="116">AJ85+AJ74</f>
         <v>173196</v>
       </c>
       <c r="AK86" s="6">
-        <f t="shared" ref="AK86" si="119">AK85+AK74</f>
+        <f t="shared" ref="AK86" si="117">AK85+AK74</f>
         <v>176619</v>
       </c>
       <c r="AL86" s="6">
-        <f t="shared" ref="AL86" si="120">AL85+AL74</f>
-        <v>0</v>
+        <f t="shared" ref="AL86" si="118">AL85+AL74</f>
+        <v>183979</v>
       </c>
       <c r="AM86" s="6">
-        <f t="shared" ref="AM86" si="121">AM85+AM74</f>
+        <f t="shared" ref="AM86" si="119">AM85+AM74</f>
         <v>0</v>
       </c>
       <c r="AN86" s="6">
-        <f t="shared" ref="AN86" si="122">AN85+AN74</f>
+        <f t="shared" ref="AN86" si="120">AN85+AN74</f>
         <v>0</v>
       </c>
       <c r="AO86" s="6">
-        <f t="shared" ref="AO86" si="123">AO85+AO74</f>
+        <f t="shared" ref="AO86" si="121">AO85+AO74</f>
         <v>0</v>
       </c>
       <c r="AP86" s="6">
-        <f t="shared" ref="AP86" si="124">AP85+AP74</f>
+        <f t="shared" ref="AP86" si="122">AP85+AP74</f>
         <v>0</v>
       </c>
       <c r="AQ86" s="6">
-        <f t="shared" ref="AQ86" si="125">AQ85+AQ74</f>
+        <f t="shared" ref="AQ86" si="123">AQ85+AQ74</f>
         <v>0</v>
       </c>
     </row>
@@ -6443,6 +6757,9 @@
       <c r="AK88" s="7">
         <v>0</v>
       </c>
+      <c r="AL88" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:43" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B89" s="7" t="s">
@@ -6487,6 +6804,9 @@
       <c r="AK89" s="7">
         <v>27</v>
       </c>
+      <c r="AL89" s="7">
+        <v>28</v>
+      </c>
     </row>
     <row r="90" spans="1:43" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B90" s="7" t="s">
@@ -6531,6 +6851,9 @@
       <c r="AK90" s="7">
         <v>1513102</v>
       </c>
+      <c r="AL90" s="7">
+        <v>1596201</v>
+      </c>
     </row>
     <row r="91" spans="1:43" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B91" s="7" t="s">
@@ -6575,6 +6898,9 @@
       <c r="AK91" s="7">
         <v>2271</v>
       </c>
+      <c r="AL91" s="7">
+        <v>1594</v>
+      </c>
     </row>
     <row r="92" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B92" s="8" t="s">
@@ -6619,6 +6945,9 @@
       <c r="AK92" s="8">
         <v>-939296</v>
       </c>
+      <c r="AL92" s="8">
+        <v>-1079805</v>
+      </c>
     </row>
     <row r="93" spans="1:43" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B93" s="10" t="s">
@@ -6629,7 +6958,7 @@
         <v>0</v>
       </c>
       <c r="F93" s="10">
-        <f t="shared" ref="F93" si="126">SUM(F88:F92)</f>
+        <f t="shared" ref="F93" si="124">SUM(F88:F92)</f>
         <v>0</v>
       </c>
       <c r="G93" s="10">
@@ -6637,7 +6966,7 @@
         <v>0</v>
       </c>
       <c r="H93" s="10">
-        <f t="shared" ref="H93" si="127">SUM(H88:H92)</f>
+        <f t="shared" ref="H93" si="125">SUM(H88:H92)</f>
         <v>0</v>
       </c>
       <c r="I93" s="10">
@@ -6645,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="J93" s="10">
-        <f t="shared" ref="J93" si="128">SUM(J88:J92)</f>
+        <f t="shared" ref="J93" si="126">SUM(J88:J92)</f>
         <v>107511</v>
       </c>
       <c r="K93" s="10">
@@ -6653,19 +6982,19 @@
         <v>0</v>
       </c>
       <c r="L93" s="10">
-        <f t="shared" ref="L93:O93" si="129">SUM(L88:L92)</f>
+        <f t="shared" ref="L93:O93" si="127">SUM(L88:L92)</f>
         <v>0</v>
       </c>
       <c r="M93" s="10">
-        <f t="shared" si="129"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="N93" s="10">
-        <f t="shared" si="129"/>
+        <f t="shared" si="127"/>
         <v>648245</v>
       </c>
       <c r="O93" s="10">
-        <f t="shared" si="129"/>
+        <f t="shared" si="127"/>
         <v>630706</v>
       </c>
       <c r="P93" s="10">
@@ -6673,15 +7002,15 @@
         <v>613643</v>
       </c>
       <c r="Q93" s="10">
-        <f t="shared" ref="Q93:S93" si="130">SUM(Q88:Q92)</f>
+        <f t="shared" ref="Q93:S93" si="128">SUM(Q88:Q92)</f>
         <v>594167</v>
       </c>
       <c r="R93" s="10">
-        <f t="shared" si="130"/>
+        <f t="shared" si="128"/>
         <v>576104</v>
       </c>
       <c r="S93" s="10">
-        <f t="shared" si="130"/>
+        <f t="shared" si="128"/>
         <v>559349</v>
       </c>
       <c r="T93" s="10">
@@ -6689,35 +7018,35 @@
         <v>539568</v>
       </c>
       <c r="U93" s="10">
-        <f t="shared" ref="U93:AB93" si="131">SUM(U88:U92)</f>
+        <f t="shared" ref="U93:AB93" si="129">SUM(U88:U92)</f>
         <v>533598</v>
       </c>
       <c r="V93" s="10">
-        <f t="shared" si="131"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="W93" s="10">
-        <f t="shared" si="131"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="X93" s="10">
-        <f t="shared" si="131"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="Y93" s="10">
-        <f t="shared" si="131"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="Z93" s="10">
-        <f t="shared" si="131"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="AA93" s="10">
-        <f t="shared" si="131"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="AB93" s="10">
-        <f t="shared" si="131"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="AG93" s="10">
@@ -6725,43 +7054,43 @@
         <v>0</v>
       </c>
       <c r="AH93" s="10">
-        <f t="shared" ref="AH93:AQ93" si="132">SUM(AH88:AH92)</f>
+        <f t="shared" ref="AH93:AQ93" si="130">SUM(AH88:AH92)</f>
         <v>0</v>
       </c>
       <c r="AI93" s="10">
-        <f t="shared" si="132"/>
+        <f t="shared" si="130"/>
         <v>107511</v>
       </c>
       <c r="AJ93" s="10">
-        <f t="shared" si="132"/>
+        <f t="shared" si="130"/>
         <v>648245</v>
       </c>
       <c r="AK93" s="10">
-        <f t="shared" si="132"/>
+        <f t="shared" si="130"/>
         <v>576104</v>
       </c>
       <c r="AL93" s="10">
-        <f t="shared" si="132"/>
-        <v>0</v>
+        <f t="shared" si="130"/>
+        <v>518018</v>
       </c>
       <c r="AM93" s="10">
-        <f t="shared" si="132"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="AN93" s="10">
-        <f t="shared" si="132"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="AO93" s="10">
-        <f t="shared" si="132"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="AP93" s="10">
-        <f t="shared" si="132"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="AQ93" s="10">
-        <f t="shared" si="132"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
     </row>
@@ -6770,143 +7099,143 @@
         <v>75</v>
       </c>
       <c r="E94" s="6">
-        <f t="shared" ref="E94" si="133">E93+E86</f>
+        <f t="shared" ref="E94" si="131">E93+E86</f>
         <v>0</v>
       </c>
       <c r="F94" s="6">
-        <f t="shared" ref="F94" si="134">F93+F86</f>
+        <f t="shared" ref="F94" si="132">F93+F86</f>
         <v>0</v>
       </c>
       <c r="G94" s="6">
-        <f t="shared" ref="G94" si="135">G93+G86</f>
+        <f t="shared" ref="G94" si="133">G93+G86</f>
         <v>0</v>
       </c>
       <c r="H94" s="6">
-        <f t="shared" ref="H94" si="136">H93+H86</f>
+        <f t="shared" ref="H94" si="134">H93+H86</f>
         <v>0</v>
       </c>
       <c r="I94" s="6">
-        <f t="shared" ref="I94" si="137">I93+I86</f>
+        <f t="shared" ref="I94" si="135">I93+I86</f>
         <v>0</v>
       </c>
       <c r="J94" s="6">
-        <f t="shared" ref="J94" si="138">J93+J86</f>
-        <v>379705</v>
+        <f t="shared" ref="J94" si="136">J93+J86</f>
+        <v>399308</v>
       </c>
       <c r="K94" s="6">
-        <f t="shared" ref="K94" si="139">K93+K86</f>
+        <f t="shared" ref="K94" si="137">K93+K86</f>
         <v>0</v>
       </c>
       <c r="L94" s="6">
-        <f t="shared" ref="L94" si="140">L93+L86</f>
+        <f t="shared" ref="L94" si="138">L93+L86</f>
         <v>0</v>
       </c>
       <c r="M94" s="6">
-        <f t="shared" ref="M94" si="141">M93+M86</f>
+        <f t="shared" ref="M94" si="139">M93+M86</f>
         <v>0</v>
       </c>
       <c r="N94" s="6">
-        <f t="shared" ref="N94" si="142">N93+N86</f>
+        <f t="shared" ref="N94" si="140">N93+N86</f>
         <v>821441</v>
       </c>
       <c r="O94" s="6">
-        <f t="shared" ref="O94" si="143">O93+O86</f>
+        <f t="shared" ref="O94" si="141">O93+O86</f>
         <v>795994</v>
       </c>
       <c r="P94" s="6">
-        <f t="shared" ref="P94" si="144">P93+P86</f>
+        <f t="shared" ref="P94" si="142">P93+P86</f>
         <v>767894</v>
       </c>
       <c r="Q94" s="6">
-        <f t="shared" ref="Q94" si="145">Q93+Q86</f>
+        <f t="shared" ref="Q94" si="143">Q93+Q86</f>
         <v>747228</v>
       </c>
       <c r="R94" s="6">
-        <f t="shared" ref="R94" si="146">R93+R86</f>
+        <f t="shared" ref="R94" si="144">R93+R86</f>
         <v>752723</v>
       </c>
       <c r="S94" s="6">
-        <f t="shared" ref="S94" si="147">S93+S86</f>
+        <f t="shared" ref="S94" si="145">S93+S86</f>
         <v>723457</v>
       </c>
       <c r="T94" s="6">
-        <f t="shared" ref="T94:AB94" si="148">T93+T86</f>
+        <f t="shared" ref="T94:AB94" si="146">T93+T86</f>
         <v>720417</v>
       </c>
       <c r="U94" s="6">
-        <f t="shared" si="148"/>
+        <f t="shared" si="146"/>
         <v>713520</v>
       </c>
       <c r="V94" s="6">
-        <f t="shared" si="148"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="W94" s="6">
-        <f t="shared" si="148"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="X94" s="6">
-        <f t="shared" si="148"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="Y94" s="6">
-        <f t="shared" si="148"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="Z94" s="6">
-        <f t="shared" si="148"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="AA94" s="6">
-        <f t="shared" si="148"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="AB94" s="6">
-        <f t="shared" si="148"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="AG94" s="6">
-        <f t="shared" ref="AG94" si="149">AG93+AG86</f>
+        <f t="shared" ref="AG94" si="147">AG93+AG86</f>
         <v>0</v>
       </c>
       <c r="AH94" s="6">
-        <f t="shared" ref="AH94" si="150">AH93+AH86</f>
+        <f t="shared" ref="AH94" si="148">AH93+AH86</f>
         <v>0</v>
       </c>
       <c r="AI94" s="6">
-        <f t="shared" ref="AI94" si="151">AI93+AI86</f>
+        <f t="shared" ref="AI94" si="149">AI93+AI86</f>
         <v>399308</v>
       </c>
       <c r="AJ94" s="6">
-        <f t="shared" ref="AJ94" si="152">AJ93+AJ86</f>
+        <f t="shared" ref="AJ94" si="150">AJ93+AJ86</f>
         <v>821441</v>
       </c>
       <c r="AK94" s="6">
-        <f t="shared" ref="AK94" si="153">AK93+AK86</f>
+        <f t="shared" ref="AK94" si="151">AK93+AK86</f>
         <v>752723</v>
       </c>
       <c r="AL94" s="6">
-        <f t="shared" ref="AL94" si="154">AL93+AL86</f>
-        <v>0</v>
+        <f t="shared" ref="AL94" si="152">AL93+AL86</f>
+        <v>701997</v>
       </c>
       <c r="AM94" s="6">
-        <f t="shared" ref="AM94" si="155">AM93+AM86</f>
+        <f t="shared" ref="AM94" si="153">AM93+AM86</f>
         <v>0</v>
       </c>
       <c r="AN94" s="6">
-        <f t="shared" ref="AN94" si="156">AN93+AN86</f>
+        <f t="shared" ref="AN94" si="154">AN93+AN86</f>
         <v>0</v>
       </c>
       <c r="AO94" s="6">
-        <f t="shared" ref="AO94" si="157">AO93+AO86</f>
+        <f t="shared" ref="AO94" si="155">AO93+AO86</f>
         <v>0</v>
       </c>
       <c r="AP94" s="6">
-        <f t="shared" ref="AP94" si="158">AP93+AP86</f>
+        <f t="shared" ref="AP94" si="156">AP93+AP86</f>
         <v>0</v>
       </c>
       <c r="AQ94" s="6">
-        <f t="shared" ref="AQ94" si="159">AQ93+AQ86</f>
+        <f t="shared" ref="AQ94" si="157">AQ93+AQ86</f>
         <v>0</v>
       </c>
     </row>
@@ -6958,6 +7287,9 @@
       <c r="AK97" s="7">
         <v>-73933</v>
       </c>
+      <c r="AL97" s="7">
+        <v>-50711</v>
+      </c>
     </row>
     <row r="98" spans="2:43" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B98" s="8" t="s">
@@ -7000,6 +7332,10 @@
       <c r="AK98" s="8">
         <v>-10440</v>
       </c>
+      <c r="AL98" s="8">
+        <f>-37991-4419</f>
+        <v>-42410</v>
+      </c>
     </row>
     <row r="99" spans="2:43" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B99" s="7" t="s">
@@ -7010,7 +7346,7 @@
         <v>0</v>
       </c>
       <c r="F99" s="7">
-        <f t="shared" ref="F99" si="160">SUM(F97:F98)</f>
+        <f t="shared" ref="F99" si="158">SUM(F97:F98)</f>
         <v>0</v>
       </c>
       <c r="G99" s="7">
@@ -7018,7 +7354,7 @@
         <v>0</v>
       </c>
       <c r="H99" s="7">
-        <f t="shared" ref="H99" si="161">SUM(H97:H98)</f>
+        <f t="shared" ref="H99" si="159">SUM(H97:H98)</f>
         <v>0</v>
       </c>
       <c r="I99" s="7">
@@ -7026,7 +7362,7 @@
         <v>0</v>
       </c>
       <c r="J99" s="7">
-        <f t="shared" ref="J99" si="162">SUM(J97:J98)</f>
+        <f t="shared" ref="J99" si="160">SUM(J97:J98)</f>
         <v>0</v>
       </c>
       <c r="K99" s="7">
@@ -7034,19 +7370,19 @@
         <v>0</v>
       </c>
       <c r="L99" s="7">
-        <f t="shared" ref="L99:O99" si="163">SUM(L97:L98)</f>
+        <f t="shared" ref="L99:O99" si="161">SUM(L97:L98)</f>
         <v>0</v>
       </c>
       <c r="M99" s="7">
-        <f t="shared" si="163"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="N99" s="7">
-        <f t="shared" si="163"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="O99" s="7">
-        <f t="shared" si="163"/>
+        <f t="shared" si="161"/>
         <v>-9395</v>
       </c>
       <c r="P99" s="7">
@@ -7054,15 +7390,15 @@
         <v>-35313</v>
       </c>
       <c r="Q99" s="7">
-        <f t="shared" ref="Q99:S99" si="164">SUM(Q97:Q98)</f>
+        <f t="shared" ref="Q99:S99" si="162">SUM(Q97:Q98)</f>
         <v>-68126</v>
       </c>
       <c r="R99" s="7">
-        <f t="shared" si="164"/>
+        <f t="shared" si="162"/>
         <v>-84373</v>
       </c>
       <c r="S99" s="7">
-        <f t="shared" si="164"/>
+        <f t="shared" si="162"/>
         <v>-36937</v>
       </c>
       <c r="T99" s="7">
@@ -7070,35 +7406,35 @@
         <v>-42713</v>
       </c>
       <c r="U99" s="7">
-        <f t="shared" ref="U99:AB99" si="165">SUM(U97:U98)</f>
+        <f t="shared" ref="U99:AB99" si="163">SUM(U97:U98)</f>
         <v>-72960</v>
       </c>
       <c r="V99" s="7">
-        <f t="shared" si="165"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="W99" s="7">
-        <f t="shared" si="165"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="X99" s="7">
-        <f t="shared" si="165"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="Y99" s="7">
-        <f t="shared" si="165"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="Z99" s="7">
-        <f t="shared" si="165"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="AA99" s="7">
-        <f t="shared" si="165"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="AB99" s="7">
-        <f t="shared" si="165"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="AG99" s="7">
@@ -7114,35 +7450,35 @@
         <v>-30123</v>
       </c>
       <c r="AJ99" s="7">
-        <f t="shared" ref="AJ99:AQ99" si="166">SUM(AJ97:AJ98)</f>
+        <f t="shared" ref="AJ99:AQ99" si="164">SUM(AJ97:AJ98)</f>
         <v>-52524</v>
       </c>
       <c r="AK99" s="7">
-        <f t="shared" si="166"/>
+        <f t="shared" si="164"/>
         <v>-84373</v>
       </c>
       <c r="AL99" s="7">
-        <f t="shared" si="166"/>
-        <v>0</v>
+        <f t="shared" si="164"/>
+        <v>-93121</v>
       </c>
       <c r="AM99" s="7">
-        <f t="shared" si="166"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="AN99" s="7">
-        <f t="shared" si="166"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="AO99" s="7">
-        <f t="shared" si="166"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="AP99" s="7">
-        <f t="shared" si="166"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="AQ99" s="7">
-        <f t="shared" si="166"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
     </row>
@@ -7187,6 +7523,9 @@
       <c r="AK101" s="7">
         <v>-6337</v>
       </c>
+      <c r="AL101" s="7">
+        <v>-8971</v>
+      </c>
     </row>
     <row r="102" spans="2:43" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B102" s="7" t="s">
@@ -7228,6 +7567,9 @@
       <c r="AK102" s="7">
         <v>75544</v>
       </c>
+      <c r="AL102" s="7">
+        <v>57132</v>
+      </c>
     </row>
     <row r="103" spans="2:43" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B103" s="7" t="s">
@@ -7267,6 +7609,9 @@
       <c r="AK103" s="7">
         <v>0</v>
       </c>
+      <c r="AL103" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="2:43" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B104" s="7" t="s">
@@ -7306,6 +7651,9 @@
       <c r="AK104" s="7">
         <v>0</v>
       </c>
+      <c r="AL104" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="2:43" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B106" s="5" t="s">
@@ -7389,92 +7737,92 @@
         <v>0</v>
       </c>
       <c r="F109" s="7">
-        <f t="shared" ref="F109:AB109" si="167">SUM(F107:F108)</f>
+        <f t="shared" ref="F109:AB109" si="165">SUM(F107:F108)</f>
         <v>0</v>
       </c>
       <c r="G109" s="7">
-        <f t="shared" si="167"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="H109" s="7">
-        <f t="shared" si="167"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="I109" s="7">
-        <f t="shared" si="167"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="J109" s="7">
-        <f t="shared" si="167"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="K109" s="7">
-        <f t="shared" si="167"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="L109" s="7">
-        <f t="shared" si="167"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="M109" s="7">
-        <f t="shared" si="167"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="N109" s="7">
-        <f t="shared" si="167"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="O109" s="7">
-        <f t="shared" si="167"/>
+        <f t="shared" si="165"/>
         <v>-9395</v>
       </c>
       <c r="P109" s="7">
-        <f t="shared" si="167"/>
+        <f t="shared" si="165"/>
         <v>-25918</v>
       </c>
       <c r="Q109" s="7">
-        <f t="shared" si="167"/>
+        <f t="shared" si="165"/>
         <v>-32813</v>
       </c>
       <c r="R109" s="7">
-        <f t="shared" si="167"/>
+        <f t="shared" si="165"/>
         <v>-16247</v>
       </c>
       <c r="S109" s="7">
-        <f t="shared" ref="S109" si="168">SUM(S107:S108)</f>
+        <f t="shared" ref="S109" si="166">SUM(S107:S108)</f>
         <v>-36937</v>
       </c>
       <c r="T109" s="7">
-        <f t="shared" ref="T109" si="169">SUM(T107:T108)</f>
+        <f t="shared" ref="T109" si="167">SUM(T107:T108)</f>
         <v>-5776</v>
       </c>
       <c r="U109" s="7">
-        <f t="shared" ref="U109" si="170">SUM(U107:U108)</f>
+        <f t="shared" ref="U109" si="168">SUM(U107:U108)</f>
         <v>-30247</v>
       </c>
       <c r="V109" s="7"/>
       <c r="W109" s="7">
-        <f t="shared" si="167"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="X109" s="7">
-        <f t="shared" si="167"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="Y109" s="7">
-        <f t="shared" si="167"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="Z109" s="7">
-        <f t="shared" si="167"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="AA109" s="7">
-        <f t="shared" si="167"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="AB109" s="7">
-        <f t="shared" si="167"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
     </row>
@@ -7699,7 +8047,7 @@
         <v>0</v>
       </c>
       <c r="F125" s="7">
-        <f t="shared" ref="F125" si="171">SUM(F121:F124)</f>
+        <f t="shared" ref="F125" si="169">SUM(F121:F124)</f>
         <v>0</v>
       </c>
       <c r="G125" s="7">
@@ -7707,7 +8055,7 @@
         <v>0</v>
       </c>
       <c r="H125" s="7">
-        <f t="shared" ref="H125" si="172">SUM(H121:H124)</f>
+        <f t="shared" ref="H125" si="170">SUM(H121:H124)</f>
         <v>0</v>
       </c>
       <c r="I125" s="7">
@@ -7715,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="J125" s="7">
-        <f t="shared" ref="J125" si="173">SUM(J121:J124)</f>
+        <f t="shared" ref="J125" si="171">SUM(J121:J124)</f>
         <v>0</v>
       </c>
       <c r="K125" s="7">
@@ -7723,19 +8071,19 @@
         <v>0</v>
       </c>
       <c r="L125" s="7">
-        <f t="shared" ref="L125:O125" si="174">SUM(L121:L124)</f>
+        <f t="shared" ref="L125:O125" si="172">SUM(L121:L124)</f>
         <v>0</v>
       </c>
       <c r="M125" s="7">
-        <f t="shared" si="174"/>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="N125" s="7">
-        <f t="shared" si="174"/>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="O125" s="7">
-        <f t="shared" si="174"/>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="P125" s="7">
@@ -7743,15 +8091,15 @@
         <v>0</v>
       </c>
       <c r="Q125" s="7">
-        <f t="shared" ref="Q125:S125" si="175">SUM(Q121:Q124)</f>
+        <f t="shared" ref="Q125:S125" si="173">SUM(Q121:Q124)</f>
         <v>37253</v>
       </c>
       <c r="R125" s="7">
-        <f t="shared" si="175"/>
+        <f t="shared" si="173"/>
         <v>0</v>
       </c>
       <c r="S125" s="7">
-        <f t="shared" si="175"/>
+        <f t="shared" si="173"/>
         <v>0</v>
       </c>
       <c r="T125" s="7">
@@ -7763,43 +8111,43 @@
         <v>0</v>
       </c>
       <c r="AH125" s="7">
-        <f t="shared" ref="AH125:AQ125" si="176">SUM(AH121:AH124)</f>
+        <f t="shared" ref="AH125:AQ125" si="174">SUM(AH121:AH124)</f>
         <v>0</v>
       </c>
       <c r="AI125" s="7">
-        <f t="shared" si="176"/>
+        <f t="shared" si="174"/>
         <v>5673</v>
       </c>
       <c r="AJ125" s="7">
-        <f t="shared" si="176"/>
+        <f t="shared" si="174"/>
         <v>14197</v>
       </c>
       <c r="AK125" s="7">
-        <f t="shared" si="176"/>
+        <f t="shared" si="174"/>
         <v>14831</v>
       </c>
       <c r="AL125" s="7">
-        <f t="shared" si="176"/>
+        <f t="shared" si="174"/>
         <v>0</v>
       </c>
       <c r="AM125" s="7">
-        <f t="shared" si="176"/>
+        <f t="shared" si="174"/>
         <v>0</v>
       </c>
       <c r="AN125" s="7">
-        <f t="shared" si="176"/>
+        <f t="shared" si="174"/>
         <v>0</v>
       </c>
       <c r="AO125" s="7">
-        <f t="shared" si="176"/>
+        <f t="shared" si="174"/>
         <v>0</v>
       </c>
       <c r="AP125" s="7">
-        <f t="shared" si="176"/>
+        <f t="shared" si="174"/>
         <v>0</v>
       </c>
       <c r="AQ125" s="7">
-        <f t="shared" si="176"/>
+        <f t="shared" si="174"/>
         <v>0</v>
       </c>
     </row>
@@ -7817,43 +8165,43 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AH128" s="15" t="e">
-        <f t="shared" ref="AH128:AQ128" si="177">AH121/AH125</f>
+        <f t="shared" ref="AH128:AQ128" si="175">AH121/AH125</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AI128" s="15">
-        <f t="shared" si="177"/>
+        <f t="shared" si="175"/>
         <v>0.21011810329631589</v>
       </c>
       <c r="AJ128" s="15">
-        <f t="shared" si="177"/>
+        <f t="shared" si="175"/>
         <v>0.63147143762766778</v>
       </c>
       <c r="AK128" s="15">
-        <f t="shared" si="177"/>
+        <f t="shared" si="175"/>
         <v>0.65673251972220348</v>
       </c>
       <c r="AL128" s="15" t="e">
-        <f t="shared" si="177"/>
+        <f t="shared" si="175"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM128" s="15" t="e">
-        <f t="shared" si="177"/>
+        <f t="shared" si="175"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN128" s="15" t="e">
-        <f t="shared" si="177"/>
+        <f t="shared" si="175"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO128" s="15" t="e">
-        <f t="shared" si="177"/>
+        <f t="shared" si="175"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP128" s="15" t="e">
-        <f t="shared" si="177"/>
+        <f t="shared" si="175"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ128" s="15" t="e">
-        <f t="shared" si="177"/>
+        <f t="shared" si="175"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7866,43 +8214,43 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AH129" s="15" t="e">
-        <f t="shared" ref="AH129:AQ129" si="178">AH122/AH125</f>
+        <f t="shared" ref="AH129:AQ129" si="176">AH122/AH125</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AI129" s="15">
-        <f t="shared" si="178"/>
+        <f t="shared" si="176"/>
         <v>0.23462013044244667</v>
       </c>
       <c r="AJ129" s="15">
-        <f t="shared" si="178"/>
+        <f t="shared" si="176"/>
         <v>0.10720574769317462</v>
       </c>
       <c r="AK129" s="15">
-        <f t="shared" si="178"/>
+        <f t="shared" si="176"/>
         <v>0.10862382846739936</v>
       </c>
       <c r="AL129" s="15" t="e">
-        <f t="shared" si="178"/>
+        <f t="shared" si="176"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM129" s="15" t="e">
-        <f t="shared" si="178"/>
+        <f t="shared" si="176"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN129" s="15" t="e">
-        <f t="shared" si="178"/>
+        <f t="shared" si="176"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO129" s="15" t="e">
-        <f t="shared" si="178"/>
+        <f t="shared" si="176"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP129" s="15" t="e">
-        <f t="shared" si="178"/>
+        <f t="shared" si="176"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ129" s="15" t="e">
-        <f t="shared" si="178"/>
+        <f t="shared" si="176"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7915,43 +8263,43 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AH130" s="15" t="e">
-        <f t="shared" ref="AH130:AQ130" si="179">AH123/AH125</f>
+        <f t="shared" ref="AH130:AQ130" si="177">AH123/AH125</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AI130" s="15">
-        <f t="shared" si="179"/>
+        <f t="shared" si="177"/>
         <v>0.29508196721311475</v>
       </c>
       <c r="AJ130" s="15">
-        <f t="shared" si="179"/>
+        <f t="shared" si="177"/>
         <v>0.1266464746073114</v>
       </c>
       <c r="AK130" s="15">
-        <f t="shared" si="179"/>
+        <f t="shared" si="177"/>
         <v>0.14523632931022856</v>
       </c>
       <c r="AL130" s="15" t="e">
-        <f t="shared" si="179"/>
+        <f t="shared" si="177"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM130" s="15" t="e">
-        <f t="shared" si="179"/>
+        <f t="shared" si="177"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN130" s="15" t="e">
-        <f t="shared" si="179"/>
+        <f t="shared" si="177"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO130" s="15" t="e">
-        <f t="shared" si="179"/>
+        <f t="shared" si="177"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP130" s="15" t="e">
-        <f t="shared" si="179"/>
+        <f t="shared" si="177"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ130" s="15" t="e">
-        <f t="shared" si="179"/>
+        <f t="shared" si="177"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7964,43 +8312,43 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AH131" s="21" t="e">
-        <f t="shared" ref="AH131:AQ131" si="180">AH124/AH125</f>
+        <f t="shared" ref="AH131:AQ131" si="178">AH124/AH125</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AI131" s="21">
-        <f t="shared" si="180"/>
+        <f t="shared" si="178"/>
         <v>0.26017979904812266</v>
       </c>
       <c r="AJ131" s="21">
-        <f t="shared" si="180"/>
+        <f t="shared" si="178"/>
         <v>0.13467634007184617</v>
       </c>
       <c r="AK131" s="21">
-        <f t="shared" si="180"/>
+        <f t="shared" si="178"/>
         <v>8.9407322500168571E-2</v>
       </c>
       <c r="AL131" s="21" t="e">
-        <f t="shared" si="180"/>
+        <f t="shared" si="178"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM131" s="21" t="e">
-        <f t="shared" si="180"/>
+        <f t="shared" si="178"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN131" s="21" t="e">
-        <f t="shared" si="180"/>
+        <f t="shared" si="178"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO131" s="21" t="e">
-        <f t="shared" si="180"/>
+        <f t="shared" si="178"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP131" s="21" t="e">
-        <f t="shared" si="180"/>
+        <f t="shared" si="178"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ131" s="21" t="e">
-        <f t="shared" si="180"/>
+        <f t="shared" si="178"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8013,43 +8361,342 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AH132" s="15" t="e">
-        <f t="shared" ref="AH132:AQ132" si="181">SUM(AH128:AH131)</f>
+        <f t="shared" ref="AH132:AQ132" si="179">SUM(AH128:AH131)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AI132" s="15">
+        <f t="shared" si="179"/>
+        <v>1</v>
+      </c>
+      <c r="AJ132" s="15">
+        <f t="shared" si="179"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="AK132" s="15">
+        <f t="shared" si="179"/>
+        <v>1</v>
+      </c>
+      <c r="AL132" s="15" t="e">
+        <f t="shared" si="179"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM132" s="15" t="e">
+        <f t="shared" si="179"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN132" s="15" t="e">
+        <f t="shared" si="179"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO132" s="15" t="e">
+        <f t="shared" si="179"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP132" s="15" t="e">
+        <f t="shared" si="179"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ132" s="15" t="e">
+        <f t="shared" si="179"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="136" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B136" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="137" spans="2:43" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B137" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG137" s="22">
+        <f>AG7*AG138</f>
+        <v>0</v>
+      </c>
+      <c r="AH137" s="22">
+        <f t="shared" ref="AH137:AQ137" si="180">AH7*AH138</f>
+        <v>0</v>
+      </c>
+      <c r="AI137" s="22">
+        <f t="shared" si="180"/>
+        <v>0</v>
+      </c>
+      <c r="AJ137" s="22">
+        <f t="shared" si="180"/>
+        <v>744362.56949999998</v>
+      </c>
+      <c r="AK137" s="22">
+        <f>AK7*AK138</f>
+        <v>1407758.8578599999</v>
+      </c>
+      <c r="AL137" s="22">
+        <f t="shared" si="180"/>
+        <v>917041.08943999989</v>
+      </c>
+      <c r="AM137" s="22">
+        <f t="shared" si="180"/>
+        <v>0</v>
+      </c>
+      <c r="AN137" s="22">
+        <f t="shared" si="180"/>
+        <v>0</v>
+      </c>
+      <c r="AO137" s="22">
+        <f t="shared" si="180"/>
+        <v>0</v>
+      </c>
+      <c r="AP137" s="22">
+        <f t="shared" si="180"/>
+        <v>0</v>
+      </c>
+      <c r="AQ137" s="22">
+        <f t="shared" si="180"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:43" x14ac:dyDescent="0.35">
+      <c r="B138" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG138" s="7">
+        <f>AG46</f>
+        <v>0</v>
+      </c>
+      <c r="AH138" s="7">
+        <f t="shared" ref="AH138:AQ138" si="181">AH46</f>
+        <v>42863.642</v>
+      </c>
+      <c r="AI138" s="7">
         <f t="shared" si="181"/>
-        <v>1</v>
-      </c>
-      <c r="AJ132" s="15">
+        <v>44214.425999999999</v>
+      </c>
+      <c r="AJ138" s="7">
         <f t="shared" si="181"/>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="AK132" s="15">
+        <v>79610.97</v>
+      </c>
+      <c r="AK138" s="7">
         <f t="shared" si="181"/>
-        <v>1</v>
-      </c>
-      <c r="AL132" s="15" t="e">
+        <v>267126.91800000001</v>
+      </c>
+      <c r="AL138" s="7">
         <f t="shared" si="181"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM132" s="15" t="e">
+        <v>279585.69799999997</v>
+      </c>
+      <c r="AM138" s="7">
         <f t="shared" si="181"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN132" s="15" t="e">
+        <v>0</v>
+      </c>
+      <c r="AN138" s="7">
         <f t="shared" si="181"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO132" s="15" t="e">
+        <v>0</v>
+      </c>
+      <c r="AO138" s="7">
         <f t="shared" si="181"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP132" s="15" t="e">
+        <v>0</v>
+      </c>
+      <c r="AP138" s="7">
         <f t="shared" si="181"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ132" s="15" t="e">
+        <v>0</v>
+      </c>
+      <c r="AQ138" s="7">
         <f t="shared" si="181"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:43" x14ac:dyDescent="0.35">
+      <c r="B139" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG139" s="23" t="e">
+        <f>AG137/AG22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH139" s="23">
+        <f t="shared" ref="AH139:AQ139" si="182">AH137/AH22</f>
+        <v>0</v>
+      </c>
+      <c r="AI139" s="23">
+        <f t="shared" si="182"/>
+        <v>0</v>
+      </c>
+      <c r="AJ139" s="23">
+        <f t="shared" si="182"/>
+        <v>5.6731060331227274</v>
+      </c>
+      <c r="AK139" s="23">
+        <f t="shared" si="182"/>
+        <v>7.360599708558162</v>
+      </c>
+      <c r="AL139" s="23">
+        <f t="shared" si="182"/>
+        <v>4.1552229738645012</v>
+      </c>
+      <c r="AM139" s="23" t="e">
+        <f t="shared" si="182"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN139" s="23" t="e">
+        <f t="shared" si="182"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO139" s="23" t="e">
+        <f t="shared" si="182"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP139" s="23" t="e">
+        <f t="shared" si="182"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ139" s="23" t="e">
+        <f t="shared" si="182"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="140" spans="2:43" x14ac:dyDescent="0.35">
+      <c r="B140" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG140" s="23" t="e">
+        <f>AG137/AG42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH140" s="23">
+        <f t="shared" ref="AH140:AQ140" si="183">AH137/AH42</f>
+        <v>0</v>
+      </c>
+      <c r="AI140" s="23">
+        <f t="shared" si="183"/>
+        <v>0</v>
+      </c>
+      <c r="AJ140" s="23">
+        <f t="shared" si="183"/>
+        <v>-5.4283901395816923</v>
+      </c>
+      <c r="AK140" s="23">
+        <f t="shared" si="183"/>
+        <v>-8.6916936755862331</v>
+      </c>
+      <c r="AL140" s="23">
+        <f t="shared" si="183"/>
+        <v>-6.526564771224618</v>
+      </c>
+      <c r="AM140" s="23" t="e">
+        <f t="shared" si="183"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN140" s="23" t="e">
+        <f t="shared" si="183"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO140" s="23" t="e">
+        <f t="shared" si="183"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP140" s="23" t="e">
+        <f t="shared" si="183"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ140" s="23" t="e">
+        <f t="shared" si="183"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="141" spans="2:43" x14ac:dyDescent="0.35">
+      <c r="B141" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG141" s="23" t="e">
+        <f>AG137/AG93</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH141" s="23" t="e">
+        <f t="shared" ref="AH141:AQ141" si="184">AH137/AH93</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI141" s="23">
+        <f t="shared" si="184"/>
+        <v>0</v>
+      </c>
+      <c r="AJ141" s="23">
+        <f t="shared" si="184"/>
+        <v>1.1482735223565164</v>
+      </c>
+      <c r="AK141" s="23">
+        <f t="shared" si="184"/>
+        <v>2.4435845921222556</v>
+      </c>
+      <c r="AL141" s="23">
+        <f t="shared" si="184"/>
+        <v>1.770288077711585</v>
+      </c>
+      <c r="AM141" s="23" t="e">
+        <f t="shared" si="184"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN141" s="23" t="e">
+        <f t="shared" si="184"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO141" s="23" t="e">
+        <f t="shared" si="184"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP141" s="23" t="e">
+        <f t="shared" si="184"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ141" s="23" t="e">
+        <f t="shared" si="184"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="142" spans="2:43" x14ac:dyDescent="0.35">
+      <c r="B142" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG142" s="23" t="e">
+        <f>AG137/AG99</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH142" s="23">
+        <f t="shared" ref="AH142:AQ142" si="185">AH137/AH99</f>
+        <v>0</v>
+      </c>
+      <c r="AI142" s="23">
+        <f t="shared" si="185"/>
+        <v>0</v>
+      </c>
+      <c r="AJ142" s="23">
+        <f t="shared" si="185"/>
+        <v>-14.171856094356865</v>
+      </c>
+      <c r="AK142" s="23">
+        <f t="shared" si="185"/>
+        <v>-16.684944921479619</v>
+      </c>
+      <c r="AL142" s="23">
+        <f t="shared" si="185"/>
+        <v>-9.8478440893031642</v>
+      </c>
+      <c r="AM142" s="23" t="e">
+        <f t="shared" si="185"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN142" s="23" t="e">
+        <f t="shared" si="185"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO142" s="23" t="e">
+        <f t="shared" si="185"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP142" s="23" t="e">
+        <f t="shared" si="185"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ142" s="23" t="e">
+        <f t="shared" si="185"/>
         <v>#DIV/0!</v>
       </c>
     </row>
